--- a/附件.xlsx
+++ b/附件.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22690\PycharmProjects\数模2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F93290B-7C6D-4098-ABBA-4EFE84B5D3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA876BB-2746-48F9-9552-3E7BDC474D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表单1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="230">
   <si>
     <t>表面风化</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1826,6 +1826,63 @@
   </si>
   <si>
     <t>二氧化硫(SO2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>无风化</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>风化</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Unnamed: 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重风化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻度风化</t>
+  </si>
+  <si>
+    <t>轻度风化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2029,7 +2086,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2099,6 +2156,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3688,7 +3746,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -6913,8 +6971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120EB676-3BDE-4D6C-B92A-41D021181632}">
   <dimension ref="A1:AG68"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="98" workbookViewId="0">
-      <selection sqref="A1:A68"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6965,6404 +7023,2945 @@
       <c r="O1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="S1" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="W1" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="X1" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA1" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB1" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD1" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE1" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="AF1" s="21" t="s">
-        <v>211</v>
-      </c>
+      <c r="P1" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
       <c r="AG1" s="21"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="23">
+        <v>69.33</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23">
+        <v>9.99</v>
+      </c>
+      <c r="E2" s="23">
+        <v>6.32</v>
+      </c>
+      <c r="F2" s="23">
+        <v>0.87</v>
+      </c>
+      <c r="G2" s="23">
+        <v>3.93</v>
+      </c>
+      <c r="H2" s="23">
+        <v>1.74</v>
+      </c>
+      <c r="I2" s="23">
+        <v>3.87</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23">
+        <v>1.17</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23">
+        <v>0.39</v>
+      </c>
+      <c r="P2" s="23">
+        <v>97.61</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="23">
+        <v>36.28</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23">
+        <v>1.05</v>
+      </c>
+      <c r="E3" s="23">
+        <v>2.34</v>
+      </c>
+      <c r="F3" s="23">
+        <v>1.18</v>
+      </c>
+      <c r="G3" s="23">
+        <v>5.73</v>
+      </c>
+      <c r="H3" s="23">
+        <v>1.86</v>
+      </c>
+      <c r="I3" s="23">
+        <v>0.26</v>
+      </c>
+      <c r="J3" s="23">
+        <v>47.43</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23">
+        <v>3.57</v>
+      </c>
+      <c r="M3" s="23">
+        <v>0.19</v>
+      </c>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23">
+        <v>99.89</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="23">
+        <v>87.05</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23">
+        <v>5.19</v>
+      </c>
+      <c r="E4" s="23">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23">
+        <v>0.78</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23">
+        <v>0.66</v>
+      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="23">
+        <v>61.71</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23">
+        <v>12.37</v>
+      </c>
+      <c r="E5" s="23">
+        <v>5.87</v>
+      </c>
+      <c r="F5" s="23">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G5" s="23">
+        <v>5.5</v>
+      </c>
+      <c r="H5" s="23">
+        <v>2.16</v>
+      </c>
+      <c r="I5" s="23">
+        <v>5.09</v>
+      </c>
+      <c r="J5" s="23">
+        <v>1.41</v>
+      </c>
+      <c r="K5" s="23">
+        <v>2.86</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="M5" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23">
+        <v>98.88</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="23">
+        <v>65.88</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23">
+        <v>9.67</v>
+      </c>
+      <c r="E6" s="23">
+        <v>7.12</v>
+      </c>
+      <c r="F6" s="23">
+        <v>1.56</v>
+      </c>
+      <c r="G6" s="23">
+        <v>6.44</v>
+      </c>
+      <c r="H6" s="23">
+        <v>2.06</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23">
+        <v>0.79</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23">
+        <v>0.36</v>
+      </c>
+      <c r="P6" s="23">
+        <v>96.06</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="23">
+        <v>61.58</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23">
+        <v>10.95</v>
+      </c>
+      <c r="E7" s="23">
+        <v>7.35</v>
+      </c>
+      <c r="F7" s="23">
+        <v>1.77</v>
+      </c>
+      <c r="G7" s="23">
+        <v>7.5</v>
+      </c>
+      <c r="H7" s="23">
+        <v>2.62</v>
+      </c>
+      <c r="I7" s="23">
+        <v>3.27</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23">
+        <v>0.94</v>
+      </c>
+      <c r="M7" s="23">
+        <v>0.06</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23">
+        <v>0.47</v>
+      </c>
+      <c r="P7" s="23">
+        <v>96.51</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="23">
+        <v>67.650000000000006</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23">
+        <v>7.37</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23">
+        <v>1.98</v>
+      </c>
+      <c r="G8" s="23">
+        <v>11.15</v>
+      </c>
+      <c r="H8" s="23">
+        <v>2.39</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="J8" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="K8" s="23">
+        <v>1.38</v>
+      </c>
+      <c r="L8" s="23">
+        <v>4.18</v>
+      </c>
+      <c r="M8" s="23">
+        <v>0.11</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23">
+        <v>98.92</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="23">
+        <v>59.81</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23">
+        <v>7.68</v>
+      </c>
+      <c r="E9" s="23">
+        <v>5.41</v>
+      </c>
+      <c r="F9" s="23">
+        <v>1.73</v>
+      </c>
+      <c r="G9" s="23">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="H9" s="23">
+        <v>6.04</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J9" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="K9" s="23">
+        <v>0.97</v>
+      </c>
+      <c r="L9" s="23">
+        <v>4.5</v>
+      </c>
+      <c r="M9" s="23">
+        <v>0.12</v>
+      </c>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23">
+        <v>98.84</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="23">
+        <v>92.63</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23">
+        <v>1.07</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23">
+        <v>1.98</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0.17</v>
+      </c>
+      <c r="I10" s="23">
+        <v>3.24</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23">
+        <v>0.61</v>
+      </c>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23">
+        <v>99.7</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="23">
+        <v>20.14</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23">
+        <v>1.48</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23">
+        <v>1.34</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23">
+        <v>10.41</v>
+      </c>
+      <c r="J11" s="23">
+        <v>28.68</v>
+      </c>
+      <c r="K11" s="23">
+        <v>31.23</v>
+      </c>
+      <c r="L11" s="23">
+        <v>3.59</v>
+      </c>
+      <c r="M11" s="23">
+        <v>0.37</v>
+      </c>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23">
+        <v>2.58</v>
+      </c>
+      <c r="P11" s="23">
+        <v>99.82</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="23">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23">
+        <v>3.19</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23">
+        <v>3.14</v>
+      </c>
+      <c r="J12" s="23">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="K12" s="23">
+        <v>30.62</v>
+      </c>
+      <c r="L12" s="23">
+        <v>7.56</v>
+      </c>
+      <c r="M12" s="23">
+        <v>0.53</v>
+      </c>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23">
+        <v>15.03</v>
+      </c>
+      <c r="P12" s="23">
+        <v>98.24</v>
+      </c>
+      <c r="Q12" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="23">
+        <v>95.02</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23">
+        <v>0.59</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0.62</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23">
+        <v>1.32</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0.32</v>
+      </c>
+      <c r="I13" s="23">
+        <v>1.55</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23">
+        <v>99.77</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="23">
+        <v>96.77</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23">
+        <v>0.92</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0.21</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23">
+        <v>0.81</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0.26</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0.84</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23">
+        <v>99.81</v>
+      </c>
+      <c r="Q14" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="23">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23">
+        <v>0.21</v>
+      </c>
+      <c r="E15" s="23">
+        <v>3.51</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0.71</v>
+      </c>
+      <c r="G15" s="23">
+        <v>2.69</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23">
+        <v>4.93</v>
+      </c>
+      <c r="J15" s="23">
+        <v>25.39</v>
+      </c>
+      <c r="K15" s="23">
+        <v>14.61</v>
+      </c>
+      <c r="L15" s="23">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="M15" s="23">
+        <v>0.37</v>
+      </c>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23">
+        <v>95.39</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="23">
+        <v>94.29</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23">
+        <v>1.01</v>
+      </c>
+      <c r="E16" s="23">
+        <v>0.72</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23">
+        <v>1.46</v>
+      </c>
+      <c r="H16" s="23">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I16" s="23">
+        <v>1.65</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23">
+        <v>99.57</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="23">
+        <v>59.01</v>
+      </c>
+      <c r="C17" s="23">
+        <v>2.86</v>
+      </c>
+      <c r="D17" s="23">
+        <v>12.53</v>
+      </c>
+      <c r="E17" s="23">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23">
+        <v>6.16</v>
+      </c>
+      <c r="H17" s="23">
+        <v>2.88</v>
+      </c>
+      <c r="I17" s="23">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23">
+        <v>1.27</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23">
+        <v>98.14</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="23">
+        <v>62.47</v>
+      </c>
+      <c r="C18" s="23">
+        <v>3.38</v>
+      </c>
+      <c r="D18" s="23">
+        <v>12.28</v>
+      </c>
+      <c r="E18" s="23">
+        <v>8.23</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0.66</v>
+      </c>
+      <c r="G18" s="23">
+        <v>9.23</v>
+      </c>
+      <c r="H18" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="23">
+        <v>0.47</v>
+      </c>
+      <c r="J18" s="23">
+        <v>1.62</v>
+      </c>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23">
+        <v>0.16</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="23">
+        <v>65.180000000000007</v>
+      </c>
+      <c r="C19" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="D19" s="23">
+        <v>14.52</v>
+      </c>
+      <c r="E19" s="23">
+        <v>8.27</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0.52</v>
+      </c>
+      <c r="G19" s="23">
+        <v>6.18</v>
+      </c>
+      <c r="H19" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="I19" s="23">
+        <v>1.07</v>
+      </c>
+      <c r="J19" s="23">
+        <v>0.11</v>
+      </c>
+      <c r="K19" s="23">
+        <v>0</v>
+      </c>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23">
+        <v>98.41</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="23">
+        <v>79.459999999999994</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23">
+        <v>9.42</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23">
+        <v>1.53</v>
+      </c>
+      <c r="G20" s="23">
+        <v>3.05</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23">
+        <v>1.36</v>
+      </c>
+      <c r="M20" s="23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N20" s="23">
+        <v>2.36</v>
+      </c>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23">
+        <v>97.25</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="23">
+        <v>29.64</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23">
+        <v>2.93</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0.59</v>
+      </c>
+      <c r="G21" s="23">
+        <v>3.57</v>
+      </c>
+      <c r="H21" s="23">
+        <v>1.33</v>
+      </c>
+      <c r="I21" s="23">
+        <v>3.51</v>
+      </c>
+      <c r="J21" s="23">
+        <v>42.82</v>
+      </c>
+      <c r="K21" s="23">
+        <v>5.35</v>
+      </c>
+      <c r="L21" s="23">
+        <v>8.83</v>
+      </c>
+      <c r="M21" s="23">
+        <v>0.19</v>
+      </c>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23">
+        <v>98.76</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="23">
+        <v>37.36</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23">
+        <v>0.71</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23">
+        <v>5.45</v>
+      </c>
+      <c r="H22" s="23">
+        <v>1.51</v>
+      </c>
+      <c r="I22" s="23">
+        <v>4.78</v>
+      </c>
+      <c r="J22" s="23">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K22" s="23">
+        <v>23.55</v>
+      </c>
+      <c r="L22" s="23">
+        <v>5.75</v>
+      </c>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23">
+        <v>88.41</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="23">
+        <v>76.680000000000007</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23">
+        <v>4.71</v>
+      </c>
+      <c r="F23" s="23">
+        <v>1.22</v>
+      </c>
+      <c r="G23" s="23">
+        <v>6.19</v>
+      </c>
+      <c r="H23" s="23">
+        <v>2.37</v>
+      </c>
+      <c r="I23" s="23">
+        <v>3.28</v>
+      </c>
+      <c r="J23" s="23">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>69.33</v>
-      </c>
-      <c r="D2">
-        <v>9.99</v>
-      </c>
-      <c r="E2">
-        <v>6.32</v>
-      </c>
-      <c r="F2">
+      <c r="K23" s="23">
+        <v>1.97</v>
+      </c>
+      <c r="L23" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23">
+        <v>98.52</v>
+      </c>
+      <c r="Q23" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="23">
+        <v>92.35</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23">
+        <v>0.74</v>
+      </c>
+      <c r="E24" s="23">
+        <v>1.66</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0.64</v>
+      </c>
+      <c r="G24" s="23">
+        <v>3.5</v>
+      </c>
+      <c r="H24" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="I24" s="23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23">
+        <v>0.21</v>
+      </c>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="23">
+        <v>53.79</v>
+      </c>
+      <c r="C25" s="23">
+        <v>7.92</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="23">
+        <v>0.71</v>
+      </c>
+      <c r="G25" s="23">
+        <v>1.42</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23">
+        <v>2.99</v>
+      </c>
+      <c r="J25" s="23">
+        <v>16.98</v>
+      </c>
+      <c r="K25" s="23">
+        <v>11.86</v>
+      </c>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23">
+        <v>0.33</v>
+      </c>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23">
+        <v>96.5</v>
+      </c>
+      <c r="Q25" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="23">
+        <v>31.94</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23">
+        <v>0.47</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23">
+        <v>1.59</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="J26" s="23">
+        <v>29.14</v>
+      </c>
+      <c r="K26" s="23">
+        <v>26.23</v>
+      </c>
+      <c r="L26" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M26" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23">
+        <v>98.88</v>
+      </c>
+      <c r="Q26" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="23">
+        <v>50.61</v>
+      </c>
+      <c r="C27" s="23">
+        <v>2.31</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23">
+        <v>0.63</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="H27" s="23">
+        <v>1.55</v>
+      </c>
+      <c r="I27" s="23">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J27" s="23">
+        <v>31.9</v>
+      </c>
+      <c r="K27" s="23">
+        <v>6.65</v>
+      </c>
+      <c r="L27" s="23">
+        <v>0.19</v>
+      </c>
+      <c r="M27" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23">
+        <v>97.06</v>
+      </c>
+      <c r="Q27" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="23">
+        <v>19.79</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23">
+        <v>1.44</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23">
+        <v>10.57</v>
+      </c>
+      <c r="J28" s="23">
+        <v>29.53</v>
+      </c>
+      <c r="K28" s="23">
+        <v>32.25</v>
+      </c>
+      <c r="L28" s="23">
+        <v>3.13</v>
+      </c>
+      <c r="M28" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23">
+        <v>1.96</v>
+      </c>
+      <c r="P28" s="23">
+        <v>99.82</v>
+      </c>
+      <c r="Q28" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="23">
+        <v>3.72</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="E29" s="23">
+        <v>3.01</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23">
+        <v>1.18</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23">
+        <v>3.6</v>
+      </c>
+      <c r="J29" s="23">
+        <v>29.92</v>
+      </c>
+      <c r="K29" s="23">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="L29" s="23">
+        <v>6.04</v>
+      </c>
+      <c r="M29" s="23">
+        <v>0.62</v>
+      </c>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23">
+        <v>15.95</v>
+      </c>
+      <c r="P29" s="23">
+        <v>99.89</v>
+      </c>
+      <c r="Q29" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="23">
+        <v>92.72</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23">
+        <v>0.94</v>
+      </c>
+      <c r="F30" s="23">
+        <v>0.54</v>
+      </c>
+      <c r="G30" s="23">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H30" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="I30" s="23">
+        <v>1.54</v>
+      </c>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23">
+        <v>0.36</v>
+      </c>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23">
+        <v>98.81</v>
+      </c>
+      <c r="Q30" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="23">
+        <v>68.08</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23">
+        <v>0.26</v>
+      </c>
+      <c r="E31" s="23">
+        <v>1.34</v>
+      </c>
+      <c r="F31" s="23">
+        <v>1</v>
+      </c>
+      <c r="G31" s="23">
+        <v>4.7</v>
+      </c>
+      <c r="H31" s="23">
+        <v>0.41</v>
+      </c>
+      <c r="I31" s="23">
+        <v>0.33</v>
+      </c>
+      <c r="J31" s="23">
+        <v>17.14</v>
+      </c>
+      <c r="K31" s="23">
+        <v>4.04</v>
+      </c>
+      <c r="L31" s="23">
+        <v>1.04</v>
+      </c>
+      <c r="M31" s="23">
+        <v>0.12</v>
+      </c>
+      <c r="N31" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23">
+        <v>98.69</v>
+      </c>
+      <c r="Q31" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="23">
+        <v>63.3</v>
+      </c>
+      <c r="C32" s="23">
+        <v>0.92</v>
+      </c>
+      <c r="D32" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="E32" s="23">
+        <v>2.98</v>
+      </c>
+      <c r="F32" s="23">
+        <v>1.49</v>
+      </c>
+      <c r="G32" s="23">
+        <v>14.34</v>
+      </c>
+      <c r="H32" s="23">
+        <v>0.81</v>
+      </c>
+      <c r="I32" s="23">
+        <v>0.74</v>
+      </c>
+      <c r="J32" s="23">
+        <v>12.31</v>
+      </c>
+      <c r="K32" s="23">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="L32" s="23">
+        <v>0.41</v>
+      </c>
+      <c r="M32" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23">
+        <v>99.88</v>
+      </c>
+      <c r="Q32" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="23">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23">
+        <v>1.41</v>
+      </c>
+      <c r="E33" s="23">
+        <v>4.49</v>
+      </c>
+      <c r="F33" s="23">
+        <v>0.98</v>
+      </c>
+      <c r="G33" s="23">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="H33" s="23">
+        <v>2.12</v>
+      </c>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23">
+        <v>39.22</v>
+      </c>
+      <c r="K33" s="23">
+        <v>10.29</v>
+      </c>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="N33" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23">
+        <v>97.95</v>
+      </c>
+      <c r="Q33" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="23">
+        <v>36.93</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23">
+        <v>4.24</v>
+      </c>
+      <c r="F34" s="23">
+        <v>0.51</v>
+      </c>
+      <c r="G34" s="23">
+        <v>3.86</v>
+      </c>
+      <c r="H34" s="23">
+        <v>2.74</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23">
+        <v>37.74</v>
+      </c>
+      <c r="K34" s="23">
+        <v>10.35</v>
+      </c>
+      <c r="L34" s="23">
+        <v>1.41</v>
+      </c>
+      <c r="M34" s="23">
+        <v>0.48</v>
+      </c>
+      <c r="N34" s="23">
+        <v>0.44</v>
+      </c>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23">
+        <v>98.7</v>
+      </c>
+      <c r="Q34" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" s="23">
+        <v>65.91</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="F35" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="G35" s="23">
+        <v>3.11</v>
+      </c>
+      <c r="H35" s="23">
+        <v>4.59</v>
+      </c>
+      <c r="I35" s="23">
+        <v>0.44</v>
+      </c>
+      <c r="J35" s="23">
+        <v>16.55</v>
+      </c>
+      <c r="K35" s="23">
+        <v>3.42</v>
+      </c>
+      <c r="L35" s="23">
+        <v>1.62</v>
+      </c>
+      <c r="M35" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23">
+        <v>98.43</v>
+      </c>
+      <c r="Q35" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="23">
+        <v>69.709999999999994</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23">
+        <v>0.21</v>
+      </c>
+      <c r="E36" s="23">
+        <v>0.46</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23">
+        <v>2.36</v>
+      </c>
+      <c r="H36" s="23">
+        <v>1</v>
+      </c>
+      <c r="I36" s="23">
+        <v>0.11</v>
+      </c>
+      <c r="J36" s="23">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="K36" s="23">
+        <v>4.88</v>
+      </c>
+      <c r="L36" s="23">
+        <v>0.17</v>
+      </c>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23">
+        <v>98.66</v>
+      </c>
+      <c r="Q36" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="23">
+        <v>75.510000000000005</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="E37" s="23">
+        <v>0.64</v>
+      </c>
+      <c r="F37" s="23">
+        <v>1</v>
+      </c>
+      <c r="G37" s="23">
+        <v>2.35</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23">
+        <v>0.47</v>
+      </c>
+      <c r="J37" s="23">
+        <v>16.16</v>
+      </c>
+      <c r="K37" s="23">
+        <v>3.55</v>
+      </c>
+      <c r="L37" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23">
+        <v>99.96</v>
+      </c>
+      <c r="Q37" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="23">
+        <v>35.78</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="E38" s="23">
+        <v>0.78</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23">
+        <v>1.62</v>
+      </c>
+      <c r="H38" s="23">
+        <v>0.47</v>
+      </c>
+      <c r="I38" s="23">
+        <v>1.51</v>
+      </c>
+      <c r="J38" s="23">
+        <v>46.55</v>
+      </c>
+      <c r="K38" s="23">
+        <v>10</v>
+      </c>
+      <c r="L38" s="23">
+        <v>0.34</v>
+      </c>
+      <c r="M38" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23">
+        <v>97.52</v>
+      </c>
+      <c r="Q38" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="23">
+        <v>65.91</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23">
+        <v>0.38</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23">
+        <v>1.44</v>
+      </c>
+      <c r="H39" s="23">
+        <v>0.17</v>
+      </c>
+      <c r="I39" s="23">
+        <v>0.16</v>
+      </c>
+      <c r="J39" s="23">
+        <v>22.05</v>
+      </c>
+      <c r="K39" s="23">
+        <v>5.68</v>
+      </c>
+      <c r="L39" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23">
+        <v>96.21</v>
+      </c>
+      <c r="Q39" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="23">
+        <v>39.57</v>
+      </c>
+      <c r="C40" s="23">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D40" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E40" s="23">
+        <v>0.37</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="H40" s="23">
+        <v>0.32</v>
+      </c>
+      <c r="I40" s="23">
+        <v>0.68</v>
+      </c>
+      <c r="J40" s="23">
+        <v>41.61</v>
+      </c>
+      <c r="K40" s="23">
+        <v>10.83</v>
+      </c>
+      <c r="L40" s="23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M40" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23">
+        <v>97.63</v>
+      </c>
+      <c r="Q40" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="23">
+        <v>60.12</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="E41" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23">
+        <v>2.72</v>
+      </c>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23">
+        <v>3.01</v>
+      </c>
+      <c r="J41" s="23">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="K41" s="23">
+        <v>10.34</v>
+      </c>
+      <c r="L41" s="23">
+        <v>1.46</v>
+      </c>
+      <c r="M41" s="23">
+        <v>0.31</v>
+      </c>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23">
+        <v>3.66</v>
+      </c>
+      <c r="P41" s="23">
+        <v>99.98</v>
+      </c>
+      <c r="Q41" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="23">
+        <v>32.93</v>
+      </c>
+      <c r="C42" s="23">
+        <v>1.38</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23">
+        <v>0.68</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23">
+        <v>2.57</v>
+      </c>
+      <c r="H42" s="23">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I42" s="23">
+        <v>0.73</v>
+      </c>
+      <c r="J42" s="23">
+        <v>49.31</v>
+      </c>
+      <c r="K42" s="23">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="L42" s="23">
+        <v>0.48</v>
+      </c>
+      <c r="M42" s="23">
+        <v>0.41</v>
+      </c>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23">
+        <v>98.57</v>
+      </c>
+      <c r="Q42" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="23">
+        <v>26.25</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23">
+        <v>0.88</v>
+      </c>
+      <c r="J43" s="23">
+        <v>61.03</v>
+      </c>
+      <c r="K43" s="23">
+        <v>7.22</v>
+      </c>
+      <c r="L43" s="23">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M43" s="23">
+        <v>0.61</v>
+      </c>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23">
+        <v>98.76</v>
+      </c>
+      <c r="Q43" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="23">
+        <v>16.71</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23">
+        <v>1.87</v>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="H44" s="23">
+        <v>0.19</v>
+      </c>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23">
+        <v>70.209999999999994</v>
+      </c>
+      <c r="K44" s="23">
+        <v>6.69</v>
+      </c>
+      <c r="L44" s="23">
+        <v>1.77</v>
+      </c>
+      <c r="M44" s="23">
+        <v>0.68</v>
+      </c>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23">
+        <v>98.57</v>
+      </c>
+      <c r="Q44" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="23">
+        <v>18.46</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23">
+        <v>0.44</v>
+      </c>
+      <c r="E45" s="23">
+        <v>4.96</v>
+      </c>
+      <c r="F45" s="23">
+        <v>2.73</v>
+      </c>
+      <c r="G45" s="23">
+        <v>3.33</v>
+      </c>
+      <c r="H45" s="23">
+        <v>1.79</v>
+      </c>
+      <c r="I45" s="23">
+        <v>0.19</v>
+      </c>
+      <c r="J45" s="23">
+        <v>44.12</v>
+      </c>
+      <c r="K45" s="23">
+        <v>9.76</v>
+      </c>
+      <c r="L45" s="23">
+        <v>7.46</v>
+      </c>
+      <c r="M45" s="23">
+        <v>0.47</v>
+      </c>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23">
+        <v>93.71</v>
+      </c>
+      <c r="Q45" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" s="23">
+        <v>51.26</v>
+      </c>
+      <c r="C46" s="23">
+        <v>5.74</v>
+      </c>
+      <c r="D46" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="E46" s="23">
+        <v>0.79</v>
+      </c>
+      <c r="F46" s="23">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G46" s="23">
+        <v>3.53</v>
+      </c>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23">
+        <v>2.67</v>
+      </c>
+      <c r="J46" s="23">
+        <v>21.88</v>
+      </c>
+      <c r="K46" s="23">
+        <v>10.47</v>
+      </c>
+      <c r="L46" s="23">
+        <v>0.08</v>
+      </c>
+      <c r="M46" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23">
+        <v>98.01</v>
+      </c>
+      <c r="Q46" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="23">
+        <v>51.33</v>
+      </c>
+      <c r="C47" s="23">
+        <v>5.68</v>
+      </c>
+      <c r="D47" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G47" s="23">
+        <v>5.66</v>
+      </c>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23">
+        <v>2.72</v>
+      </c>
+      <c r="J47" s="23">
+        <v>20.12</v>
+      </c>
+      <c r="K47" s="23">
+        <v>10.88</v>
+      </c>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23">
+        <v>97.9</v>
+      </c>
+      <c r="Q47" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="23">
+        <v>12.41</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23">
+        <v>5.24</v>
+      </c>
+      <c r="F48" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="G48" s="23">
+        <v>2.25</v>
+      </c>
+      <c r="H48" s="23">
+        <v>0.76</v>
+      </c>
+      <c r="I48" s="23">
+        <v>5.35</v>
+      </c>
+      <c r="J48" s="23">
+        <v>59.85</v>
+      </c>
+      <c r="K48" s="23">
+        <v>7.29</v>
+      </c>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23">
+        <v>0.64</v>
+      </c>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23">
+        <v>94.68</v>
+      </c>
+      <c r="Q48" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="23">
+        <v>21.7</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23">
+        <v>6.4</v>
+      </c>
+      <c r="F49" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="G49" s="23">
+        <v>3.41</v>
+      </c>
+      <c r="H49" s="23">
+        <v>1.39</v>
+      </c>
+      <c r="I49" s="23">
+        <v>1.51</v>
+      </c>
+      <c r="J49" s="23">
+        <v>44.75</v>
+      </c>
+      <c r="K49" s="23">
+        <v>3.26</v>
+      </c>
+      <c r="L49" s="23">
+        <v>12.83</v>
+      </c>
+      <c r="M49" s="23">
+        <v>0.47</v>
+      </c>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23">
+        <v>96.67</v>
+      </c>
+      <c r="Q49" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" s="23">
+        <v>60.74</v>
+      </c>
+      <c r="C50" s="23">
+        <v>3.06</v>
+      </c>
+      <c r="D50" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="E50" s="23">
+        <v>2.14</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23">
+        <v>12.69</v>
+      </c>
+      <c r="H50" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="I50" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="J50" s="23">
+        <v>13.61</v>
+      </c>
+      <c r="K50" s="23">
+        <v>5.22</v>
+      </c>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23">
+        <v>0.26</v>
+      </c>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23">
+        <v>99.12</v>
+      </c>
+      <c r="Q50" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="23">
+        <v>61.28</v>
+      </c>
+      <c r="C51" s="23">
+        <v>2.66</v>
+      </c>
+      <c r="D51" s="23">
+        <v>0.11</v>
+      </c>
+      <c r="E51" s="23">
+        <v>0.84</v>
+      </c>
+      <c r="F51" s="23">
+        <v>0.74</v>
+      </c>
+      <c r="G51" s="23">
+        <v>5</v>
+      </c>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23">
+        <v>0.53</v>
+      </c>
+      <c r="J51" s="23">
+        <v>15.99</v>
+      </c>
+      <c r="K51" s="23">
+        <v>10.96</v>
+      </c>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23">
+        <v>98.34</v>
+      </c>
+      <c r="Q51" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="23">
+        <v>55.21</v>
+      </c>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23">
+        <v>1.67</v>
+      </c>
+      <c r="G52" s="23">
+        <v>4.79</v>
+      </c>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="J52" s="23">
+        <v>25.25</v>
+      </c>
+      <c r="K52" s="23">
+        <v>10.06</v>
+      </c>
+      <c r="L52" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="M52" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23">
+        <v>98.63</v>
+      </c>
+      <c r="Q52" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="23">
+        <v>51.54</v>
+      </c>
+      <c r="C53" s="23">
+        <v>4.66</v>
+      </c>
+      <c r="D53" s="23">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E53" s="23">
         <v>0.87</v>
       </c>
-      <c r="G2">
-        <v>3.93</v>
-      </c>
-      <c r="H2">
-        <v>1.74</v>
-      </c>
-      <c r="I2">
-        <v>3.87</v>
-      </c>
-      <c r="L2">
-        <v>1.17</v>
-      </c>
-      <c r="O2">
+      <c r="F53" s="23">
+        <v>0.61</v>
+      </c>
+      <c r="G53" s="23">
+        <v>3.06</v>
+      </c>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23">
+        <v>0.65</v>
+      </c>
+      <c r="J53" s="23">
+        <v>25.4</v>
+      </c>
+      <c r="K53" s="23">
+        <v>9.23</v>
+      </c>
+      <c r="L53" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="M53" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23">
+        <v>97.26</v>
+      </c>
+      <c r="Q53" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="23">
+        <v>53.33</v>
+      </c>
+      <c r="C54" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="D54" s="23">
+        <v>0.32</v>
+      </c>
+      <c r="E54" s="23">
+        <v>2.82</v>
+      </c>
+      <c r="F54" s="23">
+        <v>1.54</v>
+      </c>
+      <c r="G54" s="23">
+        <v>13.65</v>
+      </c>
+      <c r="H54" s="23">
+        <v>1.03</v>
+      </c>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23">
+        <v>15.71</v>
+      </c>
+      <c r="K54" s="23">
+        <v>7.31</v>
+      </c>
+      <c r="L54" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M54" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="N54" s="23">
+        <v>1.31</v>
+      </c>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23">
+        <v>99.17</v>
+      </c>
+      <c r="Q54" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="23">
+        <v>28.79</v>
+      </c>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23">
+        <v>4.58</v>
+      </c>
+      <c r="F55" s="23">
+        <v>1.47</v>
+      </c>
+      <c r="G55" s="23">
+        <v>5.38</v>
+      </c>
+      <c r="H55" s="23">
+        <v>2.74</v>
+      </c>
+      <c r="I55" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="J55" s="23">
+        <v>34.18</v>
+      </c>
+      <c r="K55" s="23">
+        <v>6.1</v>
+      </c>
+      <c r="L55" s="23">
+        <v>11.1</v>
+      </c>
+      <c r="M55" s="23">
+        <v>0.46</v>
+      </c>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23">
+        <v>95.5</v>
+      </c>
+      <c r="Q55" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="23">
+        <v>54.61</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="E56" s="23">
+        <v>2.08</v>
+      </c>
+      <c r="F56" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="G56" s="23">
+        <v>6.5</v>
+      </c>
+      <c r="H56" s="23">
+        <v>1.27</v>
+      </c>
+      <c r="I56" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="J56" s="23">
+        <v>23.02</v>
+      </c>
+      <c r="K56" s="23">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="L56" s="23">
+        <v>4.32</v>
+      </c>
+      <c r="M56" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23">
+        <v>98.24</v>
+      </c>
+      <c r="Q56" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="23">
+        <v>17.98</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23">
+        <v>3.19</v>
+      </c>
+      <c r="F57" s="23">
+        <v>0.47</v>
+      </c>
+      <c r="G57" s="23">
+        <v>1.87</v>
+      </c>
+      <c r="H57" s="23">
+        <v>0.33</v>
+      </c>
+      <c r="I57" s="23">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J57" s="23">
+        <v>44</v>
+      </c>
+      <c r="K57" s="23">
+        <v>14.2</v>
+      </c>
+      <c r="L57" s="23">
+        <v>6.34</v>
+      </c>
+      <c r="M57" s="23">
+        <v>0.66</v>
+      </c>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23">
+        <v>90.17</v>
+      </c>
+      <c r="Q57" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B58" s="23">
+        <v>45.02</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23">
+        <v>3.12</v>
+      </c>
+      <c r="F58" s="23">
+        <v>0.54</v>
+      </c>
+      <c r="G58" s="23">
+        <v>4.16</v>
+      </c>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="J58" s="23">
+        <v>30.61</v>
+      </c>
+      <c r="K58" s="23">
+        <v>6.22</v>
+      </c>
+      <c r="L58" s="23">
+        <v>6.34</v>
+      </c>
+      <c r="M58" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23">
+        <v>96.94</v>
+      </c>
+      <c r="Q58" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B59" s="23">
+        <v>24.61</v>
+      </c>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23">
+        <v>3.58</v>
+      </c>
+      <c r="F59" s="23">
+        <v>1.19</v>
+      </c>
+      <c r="G59" s="23">
+        <v>5.25</v>
+      </c>
+      <c r="H59" s="23">
+        <v>1.19</v>
+      </c>
+      <c r="I59" s="23">
+        <v>1.37</v>
+      </c>
+      <c r="J59" s="23">
+        <v>40.24</v>
+      </c>
+      <c r="K59" s="23">
+        <v>8.94</v>
+      </c>
+      <c r="L59" s="23">
+        <v>8.1</v>
+      </c>
+      <c r="M59" s="23">
         <v>0.39</v>
       </c>
-      <c r="P2">
-        <v>97.61</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <f>(B2/P2)</f>
-        <v>0.71027558651777478</v>
-      </c>
-      <c r="T2">
-        <f>(C2/P2)</f>
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <f>(D2/P2)</f>
-        <v>0.10234607109927261</v>
-      </c>
-      <c r="V2">
-        <f>(E2/P2)</f>
-        <v>6.4747464399139434E-2</v>
-      </c>
-      <c r="W2">
-        <f>(F2/P2)</f>
-        <v>8.9130212068435615E-3</v>
-      </c>
-      <c r="X2">
-        <f>(G2/P2)</f>
-        <v>4.0262268210224363E-2</v>
-      </c>
-      <c r="Y2">
-        <f>(H2/P2)</f>
-        <v>1.7826042413687123E-2</v>
-      </c>
-      <c r="Z2">
-        <f>(I2/P2)</f>
-        <v>3.9647577092511016E-2</v>
-      </c>
-      <c r="AA2">
-        <f>(J2/P2)</f>
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <f>(K2/P2)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <f>(L2/P2)</f>
-        <v>1.1986476795410306E-2</v>
-      </c>
-      <c r="AD2">
-        <f>(M2/P2)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <f>(N2/P2)</f>
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <f>(O2/P2)</f>
-        <v>3.9954922651367691E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>36.28</v>
-      </c>
-      <c r="D3">
-        <v>1.05</v>
-      </c>
-      <c r="E3">
-        <v>2.34</v>
-      </c>
-      <c r="F3">
-        <v>1.18</v>
-      </c>
-      <c r="G3">
-        <v>5.73</v>
-      </c>
-      <c r="H3">
-        <v>1.86</v>
-      </c>
-      <c r="I3">
-        <v>0.26</v>
-      </c>
-      <c r="J3">
-        <v>47.43</v>
-      </c>
-      <c r="L3">
-        <v>3.57</v>
-      </c>
-      <c r="M3">
-        <v>0.19</v>
-      </c>
-      <c r="P3">
-        <v>99.89</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S66" si="0">(B3/P3)</f>
-        <v>0.3631995194714186</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T66" si="1">(C3/P3)</f>
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U66" si="2">(D3/P3)</f>
-        <v>1.051156271899089E-2</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V66" si="3">(E3/P3)</f>
-        <v>2.3425768345179697E-2</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W66" si="4">(F3/P3)</f>
-        <v>1.1812994293723095E-2</v>
-      </c>
-      <c r="X3">
-        <f t="shared" ref="X3:X66" si="5">(G3/P3)</f>
-        <v>5.7363099409350291E-2</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:Y66" si="6">(H3/P3)</f>
-        <v>1.8620482530783862E-2</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z66" si="7">(I3/P3)</f>
-        <v>2.6028631494644109E-3</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA66" si="8">(J3/P3)</f>
-        <v>0.47482230453498847</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:AB66" si="9">(K3/P3)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC66" si="10">(L3/P3)</f>
-        <v>3.5739313244569026E-2</v>
-      </c>
-      <c r="AD3">
-        <f t="shared" ref="AD3:AD66" si="11">(M3/P3)</f>
-        <v>1.9020923015316848E-3</v>
-      </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE66" si="12">(N3/P3)</f>
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <f t="shared" ref="AF3:AF66" si="13">(O3/P3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4">
-        <v>87.05</v>
-      </c>
-      <c r="D4">
-        <v>5.19</v>
-      </c>
-      <c r="E4">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="G4">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="I4">
+      <c r="N59" s="23">
+        <v>0.47</v>
+      </c>
+      <c r="O59" s="23"/>
+      <c r="P59" s="23">
+        <v>95.33</v>
+      </c>
+      <c r="Q59" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B60" s="23">
+        <v>21.35</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23">
+        <v>5.13</v>
+      </c>
+      <c r="F60" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="G60" s="23">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H60" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="I60" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="J60" s="23">
+        <v>51.34</v>
+      </c>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23">
+        <v>8.75</v>
+      </c>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23">
+        <v>91.7</v>
+      </c>
+      <c r="Q60" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="23">
+        <v>25.74</v>
+      </c>
+      <c r="C61" s="23">
+        <v>1.22</v>
+      </c>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23">
+        <v>2.27</v>
+      </c>
+      <c r="F61" s="23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G61" s="23">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H61" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="I61" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="J61" s="23">
+        <v>47.42</v>
+      </c>
+      <c r="K61" s="23">
+        <v>8.64</v>
+      </c>
+      <c r="L61" s="23">
+        <v>5.71</v>
+      </c>
+      <c r="M61" s="23">
+        <v>0.44</v>
+      </c>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="23">
+        <v>94.08</v>
+      </c>
+      <c r="Q61" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" s="23">
+        <v>63.66</v>
+      </c>
+      <c r="C62" s="23">
+        <v>3.04</v>
+      </c>
+      <c r="D62" s="23">
+        <v>0.11</v>
+      </c>
+      <c r="E62" s="23">
         <v>0.78</v>
       </c>
-      <c r="J4">
-        <v>0.25</v>
-      </c>
-      <c r="L4">
-        <v>0.66</v>
-      </c>
-      <c r="P4">
-        <v>100</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>0.87049999999999994</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="2"/>
-        <v>5.1900000000000002E-2</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="3"/>
-        <v>2.0099999999999996E-2</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="5"/>
-        <v>4.0599999999999997E-2</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="7"/>
-        <v>7.8000000000000005E-3</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="8"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="10"/>
-        <v>6.6E-3</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5">
-        <v>61.71</v>
-      </c>
-      <c r="D5">
-        <v>12.37</v>
-      </c>
-      <c r="E5">
-        <v>5.87</v>
-      </c>
-      <c r="F5">
+      <c r="F62" s="23">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G62" s="23">
+        <v>6.06</v>
+      </c>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23">
+        <v>0.54</v>
+      </c>
+      <c r="J62" s="23">
+        <v>13.66</v>
+      </c>
+      <c r="K62" s="23">
+        <v>8.99</v>
+      </c>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23">
+        <v>0.27</v>
+      </c>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23">
+        <v>98.25</v>
+      </c>
+      <c r="Q62" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="23">
+        <v>22.28</v>
+      </c>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23">
+        <v>0.32</v>
+      </c>
+      <c r="E63" s="23">
+        <v>3.19</v>
+      </c>
+      <c r="F63" s="23">
+        <v>1.28</v>
+      </c>
+      <c r="G63" s="23">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23">
+        <v>0.83</v>
+      </c>
+      <c r="J63" s="23">
+        <v>55.46</v>
+      </c>
+      <c r="K63" s="23">
+        <v>7.04</v>
+      </c>
+      <c r="L63" s="23">
+        <v>4.24</v>
+      </c>
+      <c r="M63" s="23">
+        <v>0.88</v>
+      </c>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23">
+        <v>99.67</v>
+      </c>
+      <c r="Q63" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" s="23">
+        <v>17.11</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G5">
-        <v>5.5</v>
-      </c>
-      <c r="H5">
-        <v>2.16</v>
-      </c>
-      <c r="I5">
-        <v>5.09</v>
-      </c>
-      <c r="J5">
-        <v>1.41</v>
-      </c>
-      <c r="K5">
-        <v>2.86</v>
-      </c>
-      <c r="L5">
-        <v>0.7</v>
-      </c>
-      <c r="M5">
-        <v>0.1</v>
-      </c>
-      <c r="P5">
-        <v>98.88</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>0.62408980582524276</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="2"/>
-        <v>0.12510113268608414</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="3"/>
-        <v>5.9364886731391592E-2</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="4"/>
-        <v>1.1225728155339808E-2</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="5"/>
-        <v>5.5622977346278323E-2</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="6"/>
-        <v>2.1844660194174761E-2</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="7"/>
-        <v>5.1476537216828482E-2</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="8"/>
-        <v>1.4259708737864078E-2</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="9"/>
-        <v>2.8923948220064725E-2</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="10"/>
-        <v>7.0792880258899677E-3</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="11"/>
-        <v>1.0113268608414241E-3</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>65.88</v>
-      </c>
-      <c r="D6">
-        <v>9.67</v>
-      </c>
-      <c r="E6">
-        <v>7.12</v>
-      </c>
-      <c r="F6">
-        <v>1.56</v>
-      </c>
-      <c r="G6">
-        <v>6.44</v>
-      </c>
-      <c r="H6">
-        <v>2.06</v>
-      </c>
-      <c r="I6">
+      <c r="G64" s="23">
+        <v>3.65</v>
+      </c>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23">
+        <v>1.34</v>
+      </c>
+      <c r="J64" s="23">
+        <v>58.46</v>
+      </c>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23">
+        <v>14.13</v>
+      </c>
+      <c r="M64" s="23">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23">
+        <v>96.92</v>
+      </c>
+      <c r="Q64" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="23">
+        <v>49.01</v>
+      </c>
+      <c r="C65" s="23">
+        <v>2.71</v>
+      </c>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23">
+        <v>0.86</v>
+      </c>
+      <c r="J65" s="23">
+        <v>32.92</v>
+      </c>
+      <c r="K65" s="23">
+        <v>7.95</v>
+      </c>
+      <c r="L65" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
+      <c r="P65" s="23">
+        <v>96.38</v>
+      </c>
+      <c r="Q65" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="23">
+        <v>29.15</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23">
+        <v>1.21</v>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23">
+        <v>1.85</v>
+      </c>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23">
+        <v>0.79</v>
+      </c>
+      <c r="J66" s="23">
+        <v>41.25</v>
+      </c>
+      <c r="K66" s="23">
+        <v>15.45</v>
+      </c>
+      <c r="L66" s="23">
+        <v>2.54</v>
+      </c>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23">
+        <v>92.24</v>
+      </c>
+      <c r="Q66" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="23">
+        <v>25.42</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23">
+        <v>1.31</v>
+      </c>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23">
         <v>2.1800000000000002</v>
       </c>
-      <c r="L6">
+      <c r="H67" s="23"/>
+      <c r="I67" s="23">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J67" s="23">
+        <v>45.1</v>
+      </c>
+      <c r="K67" s="23">
+        <v>17.3</v>
+      </c>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23">
+        <v>92.47</v>
+      </c>
+      <c r="Q67" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="23">
+        <v>30.39</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23">
+        <v>0.34</v>
+      </c>
+      <c r="E68" s="23">
+        <v>3.49</v>
+      </c>
+      <c r="F68" s="23">
         <v>0.79</v>
       </c>
-      <c r="O6">
-        <v>0.36</v>
-      </c>
-      <c r="P6">
-        <v>96.06</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>0.68582136164896934</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="2"/>
-        <v>0.10066625026025401</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="3"/>
-        <v>7.4120341453258382E-2</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="4"/>
-        <v>1.6239850093691444E-2</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="5"/>
-        <v>6.7041432438059545E-2</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="6"/>
-        <v>2.144493025192588E-2</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="7"/>
-        <v>2.2694149489902147E-2</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="10"/>
-        <v>8.2240266500104107E-3</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" si="13"/>
-        <v>3.7476577139287943E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>61.58</v>
-      </c>
-      <c r="D7">
-        <v>10.95</v>
-      </c>
-      <c r="E7">
-        <v>7.35</v>
-      </c>
-      <c r="F7">
-        <v>1.77</v>
-      </c>
-      <c r="G7">
-        <v>7.5</v>
-      </c>
-      <c r="H7">
-        <v>2.62</v>
-      </c>
-      <c r="I7">
-        <v>3.27</v>
-      </c>
-      <c r="L7">
-        <v>0.94</v>
-      </c>
-      <c r="M7">
-        <v>0.06</v>
-      </c>
-      <c r="O7">
-        <v>0.47</v>
-      </c>
-      <c r="P7">
-        <v>96.51</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>0.63806859392809034</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="2"/>
-        <v>0.11345974510413427</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="3"/>
-        <v>7.6157911097295611E-2</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="4"/>
-        <v>1.834006838669568E-2</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="5"/>
-        <v>7.7712154180913887E-2</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="6"/>
-        <v>2.7147445860532585E-2</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="7"/>
-        <v>3.3882499222878455E-2</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="10"/>
-        <v>9.7399233240078736E-3</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="11"/>
-        <v>6.2169723344731112E-4</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="13"/>
-        <v>4.8699616620039368E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8">
-        <v>67.650000000000006</v>
-      </c>
-      <c r="D8">
-        <v>7.37</v>
-      </c>
-      <c r="F8">
-        <v>1.98</v>
-      </c>
-      <c r="G8">
-        <v>11.15</v>
-      </c>
-      <c r="H8">
-        <v>2.39</v>
-      </c>
-      <c r="I8">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="J8">
-        <v>0.2</v>
-      </c>
-      <c r="K8">
-        <v>1.38</v>
-      </c>
-      <c r="L8">
-        <v>4.18</v>
-      </c>
-      <c r="M8">
-        <v>0.11</v>
-      </c>
-      <c r="P8">
-        <v>98.92</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>0.68388596845936112</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="2"/>
-        <v>7.4504650222401936E-2</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="4"/>
-        <v>2.0016174686615446E-2</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="5"/>
-        <v>0.11271734735139508</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="6"/>
-        <v>2.4160938131823698E-2</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="7"/>
-        <v>2.5374039627982205E-2</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="8"/>
-        <v>2.0218358269308533E-3</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="9"/>
-        <v>1.3950667205822886E-2</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="10"/>
-        <v>4.2256368782854825E-2</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="11"/>
-        <v>1.1120097048119692E-3</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9">
-        <v>59.81</v>
-      </c>
-      <c r="D9">
-        <v>7.68</v>
-      </c>
-      <c r="E9">
-        <v>5.41</v>
-      </c>
-      <c r="F9">
-        <v>1.73</v>
-      </c>
-      <c r="G9">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="H9">
-        <v>6.04</v>
-      </c>
-      <c r="I9">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="J9">
-        <v>0.35</v>
-      </c>
-      <c r="K9">
-        <v>0.97</v>
-      </c>
-      <c r="L9">
-        <v>4.5</v>
-      </c>
-      <c r="M9">
-        <v>0.12</v>
-      </c>
-      <c r="P9">
-        <v>98.84</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>0.6051193848644274</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="2"/>
-        <v>7.7701335491703757E-2</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="3"/>
-        <v>5.4734925131525697E-2</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="4"/>
-        <v>1.7503035208417644E-2</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="5"/>
-        <v>0.10167948199109672</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="6"/>
-        <v>6.1108862808579523E-2</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="7"/>
-        <v>2.2055847834884661E-2</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="8"/>
-        <v>3.5410764872521243E-3</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="9"/>
-        <v>9.8138405503844593E-3</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="10"/>
-        <v>4.552812626467017E-2</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="11"/>
-        <v>1.2140833670578712E-3</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>92.63</v>
-      </c>
-      <c r="E10">
-        <v>1.07</v>
-      </c>
-      <c r="G10">
-        <v>1.98</v>
-      </c>
-      <c r="H10">
-        <v>0.17</v>
-      </c>
-      <c r="I10">
-        <v>3.24</v>
-      </c>
-      <c r="L10">
-        <v>0.61</v>
-      </c>
-      <c r="P10">
-        <v>99.7</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="0"/>
-        <v>0.92908726178535594</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="3"/>
-        <v>1.0732196589769307E-2</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="5"/>
-        <v>1.9859578736208625E-2</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="6"/>
-        <v>1.7051153460381145E-3</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="7"/>
-        <v>3.2497492477432298E-2</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="10"/>
-        <v>6.1183550651955866E-3</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>20.14</v>
-      </c>
-      <c r="E11">
-        <v>1.48</v>
-      </c>
-      <c r="G11">
-        <v>1.34</v>
-      </c>
-      <c r="I11">
-        <v>10.41</v>
-      </c>
-      <c r="J11">
-        <v>28.68</v>
-      </c>
-      <c r="K11">
-        <v>31.23</v>
-      </c>
-      <c r="L11">
-        <v>3.59</v>
-      </c>
-      <c r="M11">
-        <v>0.37</v>
-      </c>
-      <c r="O11">
-        <v>2.58</v>
-      </c>
-      <c r="P11">
-        <v>99.82</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="0"/>
-        <v>0.20176317371268285</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="3"/>
-        <v>1.4826688038469246E-2</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="5"/>
-        <v>1.3424163494289723E-2</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="7"/>
-        <v>0.10428771789220598</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="8"/>
-        <v>0.28731717090763376</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="9"/>
-        <v>0.31286315367661793</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="10"/>
-        <v>3.5964736525746346E-2</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="11"/>
-        <v>3.7066720096173116E-3</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="13"/>
-        <v>2.5846523742736927E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="E12">
-        <v>3.19</v>
-      </c>
-      <c r="G12">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I12">
-        <v>3.14</v>
-      </c>
-      <c r="J12">
-        <v>32.450000000000003</v>
-      </c>
-      <c r="K12">
-        <v>30.62</v>
-      </c>
-      <c r="L12">
-        <v>7.56</v>
-      </c>
-      <c r="M12">
-        <v>0.53</v>
-      </c>
-      <c r="O12">
-        <v>15.03</v>
-      </c>
-      <c r="P12">
-        <v>98.24</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="0"/>
-        <v>4.692589576547232E-2</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="3"/>
-        <v>3.2471498371335505E-2</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="5"/>
-        <v>1.1298859934853422E-2</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="7"/>
-        <v>3.1962540716612378E-2</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="8"/>
-        <v>0.3303135179153095</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="9"/>
-        <v>0.311685667752443</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="10"/>
-        <v>7.6954397394136814E-2</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="11"/>
-        <v>5.3949511400651472E-3</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="13"/>
-        <v>0.15299267100977199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>95.02</v>
-      </c>
-      <c r="D13">
-        <v>0.59</v>
-      </c>
-      <c r="E13">
-        <v>0.62</v>
-      </c>
-      <c r="G13">
-        <v>1.32</v>
-      </c>
-      <c r="H13">
-        <v>0.32</v>
-      </c>
-      <c r="I13">
-        <v>1.55</v>
-      </c>
-      <c r="L13">
-        <v>0.35</v>
-      </c>
-      <c r="P13">
-        <v>99.77</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="0"/>
-        <v>0.95239049814573518</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="2"/>
-        <v>5.913601282950787E-3</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="3"/>
-        <v>6.2142928736093018E-3</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="5"/>
-        <v>1.3230429988974644E-2</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="6"/>
-        <v>3.2073769670241557E-3</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="7"/>
-        <v>1.5535732184023255E-2</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="10"/>
-        <v>3.50806855768267E-3</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>96.77</v>
-      </c>
-      <c r="D14">
-        <v>0.92</v>
-      </c>
-      <c r="E14">
-        <v>0.21</v>
-      </c>
-      <c r="G14">
-        <v>0.81</v>
-      </c>
-      <c r="H14">
-        <v>0.26</v>
-      </c>
-      <c r="I14">
-        <v>0.84</v>
-      </c>
-      <c r="P14">
-        <v>99.81</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="0"/>
-        <v>0.96954213004708945</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="2"/>
-        <v>9.2175132752229244E-3</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="3"/>
-        <v>2.1039975954313195E-3</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="5"/>
-        <v>8.1154192966636611E-3</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="6"/>
-        <v>2.6049494038673481E-3</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="7"/>
-        <v>8.4159903817252781E-3</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>33.590000000000003</v>
-      </c>
-      <c r="D15">
-        <v>0.21</v>
-      </c>
-      <c r="E15">
-        <v>3.51</v>
-      </c>
-      <c r="F15">
-        <v>0.71</v>
-      </c>
-      <c r="G15">
-        <v>2.69</v>
-      </c>
-      <c r="I15">
-        <v>4.93</v>
-      </c>
-      <c r="J15">
-        <v>25.39</v>
-      </c>
-      <c r="K15">
-        <v>14.61</v>
-      </c>
-      <c r="L15">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="M15">
-        <v>0.37</v>
-      </c>
-      <c r="P15">
-        <v>95.39</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="0"/>
-        <v>0.3521333473110389</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="2"/>
-        <v>2.2014886256421008E-3</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="3"/>
-        <v>3.6796309885732258E-2</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="4"/>
-        <v>7.4431282105042454E-3</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="5"/>
-        <v>2.820002096655834E-2</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="7"/>
-        <v>5.1682566306740743E-2</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="8"/>
-        <v>0.26617045811929974</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="9"/>
-        <v>0.15316070866967188</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="10"/>
-        <v>9.8333158612013846E-2</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="11"/>
-        <v>3.8788132927979873E-3</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>94.29</v>
-      </c>
-      <c r="D16">
-        <v>1.01</v>
-      </c>
-      <c r="E16">
-        <v>0.72</v>
-      </c>
-      <c r="G16">
-        <v>1.46</v>
-      </c>
-      <c r="H16">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I16">
-        <v>1.65</v>
-      </c>
-      <c r="L16">
-        <v>0.15</v>
-      </c>
-      <c r="P16">
-        <v>99.57</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="0"/>
-        <v>0.94697197951190126</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="2"/>
-        <v>1.0143617555488602E-2</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="3"/>
-        <v>7.2310937029225674E-3</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="5"/>
-        <v>1.4663051119815206E-2</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="6"/>
-        <v>2.912523852566034E-3</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="7"/>
-        <v>1.6571256402530883E-2</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="10"/>
-        <v>1.5064778547755348E-3</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>59.01</v>
-      </c>
-      <c r="C17">
-        <v>2.86</v>
-      </c>
-      <c r="D17">
-        <v>12.53</v>
-      </c>
-      <c r="E17">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G17">
-        <v>6.16</v>
-      </c>
-      <c r="H17">
-        <v>2.88</v>
-      </c>
-      <c r="I17">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="L17">
-        <v>1.27</v>
-      </c>
-      <c r="P17">
-        <v>98.14</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="0"/>
-        <v>0.60128388017118395</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="1"/>
-        <v>2.9142041980843691E-2</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="2"/>
-        <v>0.12767475035663337</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="3"/>
-        <v>8.8648868962706337E-2</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="5"/>
-        <v>6.2767475035663337E-2</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="6"/>
-        <v>2.9345832484206236E-2</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="7"/>
-        <v>4.8196454045241498E-2</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="10"/>
-        <v>1.29406969635215E-2</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>62.47</v>
-      </c>
-      <c r="C18">
-        <v>3.38</v>
-      </c>
-      <c r="D18">
-        <v>12.28</v>
-      </c>
-      <c r="E18">
-        <v>8.23</v>
-      </c>
-      <c r="F18">
-        <v>0.66</v>
-      </c>
-      <c r="G18">
-        <v>9.23</v>
-      </c>
-      <c r="H18">
-        <v>0.5</v>
-      </c>
-      <c r="I18">
-        <v>0.47</v>
-      </c>
-      <c r="J18">
-        <v>1.62</v>
-      </c>
-      <c r="L18">
-        <v>0.16</v>
-      </c>
-      <c r="P18">
-        <v>99</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="0"/>
-        <v>0.63101010101010102</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="1"/>
-        <v>3.4141414141414139E-2</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="2"/>
-        <v>0.12404040404040403</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="3"/>
-        <v>8.3131313131313139E-2</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="4"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="5"/>
-        <v>9.3232323232323236E-2</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="6"/>
-        <v>5.0505050505050509E-3</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="7"/>
-        <v>4.7474747474747468E-3</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="8"/>
-        <v>1.6363636363636365E-2</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="10"/>
-        <v>1.6161616161616162E-3</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>65.180000000000007</v>
-      </c>
-      <c r="C19">
-        <v>2.1</v>
-      </c>
-      <c r="D19">
-        <v>14.52</v>
-      </c>
-      <c r="E19">
-        <v>8.27</v>
-      </c>
-      <c r="F19">
-        <v>0.52</v>
-      </c>
-      <c r="G19">
-        <v>6.18</v>
-      </c>
-      <c r="H19">
-        <v>0.42</v>
-      </c>
-      <c r="I19">
-        <v>1.07</v>
-      </c>
-      <c r="J19">
-        <v>0.11</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0.04</v>
-      </c>
-      <c r="P19">
-        <v>98.41</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="0"/>
-        <v>0.66233106391626873</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="1"/>
-        <v>2.1339294787115132E-2</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="2"/>
-        <v>0.14754598109948175</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="3"/>
-        <v>8.4036175185448633E-2</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="4"/>
-        <v>5.2840158520475562E-3</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="5"/>
-        <v>6.279849608779596E-2</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="6"/>
-        <v>4.2678589574230265E-3</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="7"/>
-        <v>1.0872878772482473E-2</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="8"/>
-        <v>1.1177725840869832E-3</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <f t="shared" si="11"/>
-        <v>4.0646275784981205E-4</v>
-      </c>
-      <c r="AE19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>79.459999999999994</v>
-      </c>
-      <c r="D20">
-        <v>9.42</v>
-      </c>
-      <c r="F20">
-        <v>1.53</v>
-      </c>
-      <c r="G20">
-        <v>3.05</v>
-      </c>
-      <c r="L20">
-        <v>1.36</v>
-      </c>
-      <c r="M20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N20">
-        <v>2.36</v>
-      </c>
-      <c r="P20">
-        <v>97.25</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="0"/>
-        <v>0.81706940874035983</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="2"/>
-        <v>9.6863753213367612E-2</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="4"/>
-        <v>1.5732647814910027E-2</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="5"/>
-        <v>3.1362467866323906E-2</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="10"/>
-        <v>1.398457583547558E-2</v>
-      </c>
-      <c r="AD20">
-        <f t="shared" si="11"/>
-        <v>7.1979434447300779E-4</v>
-      </c>
-      <c r="AE20">
-        <f t="shared" si="12"/>
-        <v>2.4267352185089974E-2</v>
-      </c>
-      <c r="AF20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>29.64</v>
-      </c>
-      <c r="E21">
-        <v>2.93</v>
-      </c>
-      <c r="F21">
-        <v>0.59</v>
-      </c>
-      <c r="G21">
-        <v>3.57</v>
-      </c>
-      <c r="H21">
-        <v>1.33</v>
-      </c>
-      <c r="I21">
-        <v>3.51</v>
-      </c>
-      <c r="J21">
-        <v>42.82</v>
-      </c>
-      <c r="K21">
-        <v>5.35</v>
-      </c>
-      <c r="L21">
-        <v>8.83</v>
-      </c>
-      <c r="M21">
-        <v>0.19</v>
-      </c>
-      <c r="P21">
+      <c r="G68" s="23">
+        <v>3.52</v>
+      </c>
+      <c r="H68" s="23">
+        <v>0.86</v>
+      </c>
+      <c r="I68" s="23">
+        <v>3.13</v>
+      </c>
+      <c r="J68" s="23">
+        <v>39.35</v>
+      </c>
+      <c r="K68" s="23">
+        <v>7.66</v>
+      </c>
+      <c r="L68" s="23">
+        <v>8.99</v>
+      </c>
+      <c r="M68" s="23">
+        <v>0.24</v>
+      </c>
+      <c r="N68" s="23"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="23">
         <v>98.76</v>
       </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="0"/>
-        <v>0.30012150668286752</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="3"/>
-        <v>2.9667881733495341E-2</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="4"/>
-        <v>5.9740785743215867E-3</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="5"/>
-        <v>3.6148238153098415E-2</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="6"/>
-        <v>1.3466990684487647E-2</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" si="7"/>
-        <v>3.5540704738760628E-2</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="8"/>
-        <v>0.43357634669906842</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="9"/>
-        <v>5.4171729445119478E-2</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="10"/>
-        <v>8.9408667476711209E-2</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" si="11"/>
-        <v>1.9238558120696638E-3</v>
-      </c>
-      <c r="AE21">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>37.36</v>
-      </c>
-      <c r="D22">
-        <v>0.71</v>
-      </c>
-      <c r="G22">
-        <v>5.45</v>
-      </c>
-      <c r="H22">
-        <v>1.51</v>
-      </c>
-      <c r="I22">
-        <v>4.78</v>
-      </c>
-      <c r="J22">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="K22">
-        <v>23.55</v>
-      </c>
-      <c r="L22">
-        <v>5.75</v>
-      </c>
-      <c r="P22">
-        <v>88.41</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="0"/>
-        <v>0.42257663160275988</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="2"/>
-        <v>8.0307657504807145E-3</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="5"/>
-        <v>6.1644610338197042E-2</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="6"/>
-        <v>1.7079515891867438E-2</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="7"/>
-        <v>5.4066282094785666E-2</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="8"/>
-        <v>0.10519172039362064</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="9"/>
-        <v>0.26637258228707161</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="10"/>
-        <v>6.5037891641217066E-2</v>
-      </c>
-      <c r="AD22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>76.680000000000007</v>
-      </c>
-      <c r="E23">
-        <v>4.71</v>
-      </c>
-      <c r="F23">
-        <v>1.22</v>
-      </c>
-      <c r="G23">
-        <v>6.19</v>
-      </c>
-      <c r="H23">
-        <v>2.37</v>
-      </c>
-      <c r="I23">
-        <v>3.28</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1.97</v>
-      </c>
-      <c r="L23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P23">
-        <v>98.52</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="0"/>
-        <v>0.7783191230207066</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="3"/>
-        <v>4.7807551766138857E-2</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="4"/>
-        <v>1.2383272431993504E-2</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="5"/>
-        <v>6.2829882257409667E-2</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="6"/>
-        <v>2.405602923264312E-2</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="7"/>
-        <v>3.329273244011368E-2</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="8"/>
-        <v>1.0150223304912708E-2</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="9"/>
-        <v>1.9995939910678034E-2</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="10"/>
-        <v>1.116524563540398E-2</v>
-      </c>
-      <c r="AD23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>92.35</v>
-      </c>
-      <c r="D24">
-        <v>0.74</v>
-      </c>
-      <c r="E24">
-        <v>1.66</v>
-      </c>
-      <c r="F24">
-        <v>0.64</v>
-      </c>
-      <c r="G24">
-        <v>3.5</v>
-      </c>
-      <c r="H24">
-        <v>0.35</v>
-      </c>
-      <c r="I24">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L24">
-        <v>0.21</v>
-      </c>
-      <c r="P24">
-        <v>100</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="0"/>
-        <v>0.92349999999999999</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="2"/>
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="3"/>
-        <v>1.66E-2</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="4"/>
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="6"/>
-        <v>3.4999999999999996E-3</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" si="7"/>
-        <v>5.5000000000000005E-3</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="10"/>
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="AD24">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25">
-        <v>53.79</v>
-      </c>
-      <c r="C25">
-        <v>7.92</v>
-      </c>
-      <c r="E25">
-        <v>0.5</v>
-      </c>
-      <c r="F25">
-        <v>0.71</v>
-      </c>
-      <c r="G25">
-        <v>1.42</v>
-      </c>
-      <c r="I25">
-        <v>2.99</v>
-      </c>
-      <c r="J25">
-        <v>16.98</v>
-      </c>
-      <c r="K25">
-        <v>11.86</v>
-      </c>
-      <c r="M25">
-        <v>0.33</v>
-      </c>
-      <c r="P25">
-        <v>96.5</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="0"/>
-        <v>0.55740932642487051</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="1"/>
-        <v>8.2072538860103628E-2</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="3"/>
-        <v>5.1813471502590676E-3</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="4"/>
-        <v>7.3575129533678752E-3</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="5"/>
-        <v>1.471502590673575E-2</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="7"/>
-        <v>3.0984455958549224E-2</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="8"/>
-        <v>0.17595854922279794</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="9"/>
-        <v>0.12290155440414507</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <f t="shared" si="11"/>
-        <v>3.4196891191709848E-3</v>
-      </c>
-      <c r="AE25">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>31.94</v>
-      </c>
-      <c r="E26">
-        <v>0.47</v>
-      </c>
-      <c r="G26">
-        <v>1.59</v>
-      </c>
-      <c r="I26">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="J26">
-        <v>29.14</v>
-      </c>
-      <c r="K26">
-        <v>26.23</v>
-      </c>
-      <c r="L26">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M26">
-        <v>0.91</v>
-      </c>
-      <c r="P26">
-        <v>98.88</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="0"/>
-        <v>0.32301779935275082</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="3"/>
-        <v>4.7532362459546925E-3</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="5"/>
-        <v>1.6080097087378644E-2</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <f t="shared" si="7"/>
-        <v>8.5558252427184484E-2</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" si="8"/>
-        <v>0.29470064724919098</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="9"/>
-        <v>0.26527103559870552</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="10"/>
-        <v>1.4158576051779936E-3</v>
-      </c>
-      <c r="AD26">
-        <f t="shared" si="11"/>
-        <v>9.2030744336569579E-3</v>
-      </c>
-      <c r="AE26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>181</v>
-      </c>
-      <c r="B27">
-        <v>50.61</v>
-      </c>
-      <c r="C27">
-        <v>2.31</v>
-      </c>
-      <c r="E27">
-        <v>0.63</v>
-      </c>
-      <c r="G27">
-        <v>1.9</v>
-      </c>
-      <c r="H27">
-        <v>1.55</v>
-      </c>
-      <c r="I27">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="J27">
-        <v>31.9</v>
-      </c>
-      <c r="K27">
-        <v>6.65</v>
-      </c>
-      <c r="L27">
-        <v>0.19</v>
-      </c>
-      <c r="M27">
-        <v>0.2</v>
-      </c>
-      <c r="P27">
-        <v>97.06</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="0"/>
-        <v>0.52143004327220277</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="1"/>
-        <v>2.3799711518648257E-2</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="3"/>
-        <v>6.4908304141767974E-3</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="5"/>
-        <v>1.9575520296723676E-2</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="6"/>
-        <v>1.5969503399958788E-2</v>
-      </c>
-      <c r="Z27">
-        <f t="shared" si="7"/>
-        <v>1.1539254069647641E-2</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="8"/>
-        <v>0.32866268287657119</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="9"/>
-        <v>6.8514321038532874E-2</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="10"/>
-        <v>1.9575520296723674E-3</v>
-      </c>
-      <c r="AD27">
-        <f t="shared" si="11"/>
-        <v>2.0605810838656502E-3</v>
-      </c>
-      <c r="AE27">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>19.79</v>
-      </c>
-      <c r="E28">
-        <v>1.44</v>
-      </c>
-      <c r="G28">
-        <v>0.7</v>
-      </c>
-      <c r="I28">
-        <v>10.57</v>
-      </c>
-      <c r="J28">
-        <v>29.53</v>
-      </c>
-      <c r="K28">
-        <v>32.25</v>
-      </c>
-      <c r="L28">
-        <v>3.13</v>
-      </c>
-      <c r="M28">
-        <v>0.45</v>
-      </c>
-      <c r="O28">
-        <v>1.96</v>
-      </c>
-      <c r="P28">
-        <v>99.82</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="0"/>
-        <v>0.19825686235223403</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="3"/>
-        <v>1.4425966740132239E-2</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="5"/>
-        <v>7.0126227208976155E-3</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" si="7"/>
-        <v>0.10589060308555401</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="8"/>
-        <v>0.29583249849729515</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="9"/>
-        <v>0.32308154678421158</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="10"/>
-        <v>3.1356441594870769E-2</v>
-      </c>
-      <c r="AD28">
-        <f t="shared" si="11"/>
-        <v>4.508114606291325E-3</v>
-      </c>
-      <c r="AE28">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <f t="shared" si="13"/>
-        <v>1.9635343618513323E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29">
-        <v>3.72</v>
-      </c>
-      <c r="D29">
-        <v>0.4</v>
-      </c>
-      <c r="E29">
-        <v>3.01</v>
-      </c>
-      <c r="G29">
-        <v>1.18</v>
-      </c>
-      <c r="I29">
-        <v>3.6</v>
-      </c>
-      <c r="J29">
-        <v>29.92</v>
-      </c>
-      <c r="K29">
-        <v>35.450000000000003</v>
-      </c>
-      <c r="L29">
-        <v>6.04</v>
-      </c>
-      <c r="M29">
-        <v>0.62</v>
-      </c>
-      <c r="O29">
-        <v>15.95</v>
-      </c>
-      <c r="P29">
-        <v>99.89</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="0"/>
-        <v>3.7240965061567724E-2</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="2"/>
-        <v>4.004404845329863E-3</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="3"/>
-        <v>3.0133146461107214E-2</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="5"/>
-        <v>1.1812994293723095E-2</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <f t="shared" si="7"/>
-        <v>3.6039643607968769E-2</v>
-      </c>
-      <c r="AA29">
-        <f t="shared" si="8"/>
-        <v>0.29952948243067373</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" si="9"/>
-        <v>0.35489037941735913</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" si="10"/>
-        <v>6.0466513164480928E-2</v>
-      </c>
-      <c r="AD29">
-        <f t="shared" si="11"/>
-        <v>6.206827510261287E-3</v>
-      </c>
-      <c r="AE29">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <f t="shared" si="13"/>
-        <v>0.15967564320752828</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <v>92.72</v>
-      </c>
-      <c r="E30">
-        <v>0.94</v>
-      </c>
-      <c r="F30">
-        <v>0.54</v>
-      </c>
-      <c r="G30">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="H30">
-        <v>0.2</v>
-      </c>
-      <c r="I30">
-        <v>1.54</v>
-      </c>
-      <c r="L30">
-        <v>0.36</v>
-      </c>
-      <c r="P30">
-        <v>98.81</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="0"/>
-        <v>0.93836656208885738</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="3"/>
-        <v>9.5132071652666728E-3</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="4"/>
-        <v>5.4650339034510676E-3</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="5"/>
-        <v>2.5402287217892922E-2</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="6"/>
-        <v>2.024086630907803E-3</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" si="7"/>
-        <v>1.5585467057990082E-2</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="10"/>
-        <v>3.6433559356340451E-3</v>
-      </c>
-      <c r="AD30">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31">
-        <v>68.08</v>
-      </c>
-      <c r="D31">
-        <v>0.26</v>
-      </c>
-      <c r="E31">
-        <v>1.34</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>4.7</v>
-      </c>
-      <c r="H31">
-        <v>0.41</v>
-      </c>
-      <c r="I31">
-        <v>0.33</v>
-      </c>
-      <c r="J31">
-        <v>17.14</v>
-      </c>
-      <c r="K31">
-        <v>4.04</v>
-      </c>
-      <c r="L31">
-        <v>1.04</v>
-      </c>
-      <c r="M31">
-        <v>0.12</v>
-      </c>
-      <c r="N31">
-        <v>0.23</v>
-      </c>
-      <c r="P31">
-        <v>98.69</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="0"/>
-        <v>0.689836862904043</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="2"/>
-        <v>2.6345121086229608E-3</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="3"/>
-        <v>1.3577870098287568E-2</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="4"/>
-        <v>1.013273887931908E-2</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="5"/>
-        <v>4.762387273279968E-2</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="6"/>
-        <v>4.1544229405208223E-3</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" si="7"/>
-        <v>3.3438038301752968E-3</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" si="8"/>
-        <v>0.17367514439152903</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" si="9"/>
-        <v>4.0936265072449081E-2</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" si="10"/>
-        <v>1.0538048434491843E-2</v>
-      </c>
-      <c r="AD31">
-        <f t="shared" si="11"/>
-        <v>1.2159286655182896E-3</v>
-      </c>
-      <c r="AE31">
-        <f t="shared" si="12"/>
-        <v>2.3305299422433884E-3</v>
-      </c>
-      <c r="AF31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32">
-        <v>63.3</v>
-      </c>
-      <c r="C32">
-        <v>0.92</v>
-      </c>
-      <c r="D32">
-        <v>0.3</v>
-      </c>
-      <c r="E32">
-        <v>2.98</v>
-      </c>
-      <c r="F32">
-        <v>1.49</v>
-      </c>
-      <c r="G32">
-        <v>14.34</v>
-      </c>
-      <c r="H32">
-        <v>0.81</v>
-      </c>
-      <c r="I32">
-        <v>0.74</v>
-      </c>
-      <c r="J32">
-        <v>12.31</v>
-      </c>
-      <c r="K32">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="L32">
-        <v>0.41</v>
-      </c>
-      <c r="M32">
-        <v>0.25</v>
-      </c>
-      <c r="P32">
-        <v>99.88</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="0"/>
-        <v>0.63376051261513822</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="1"/>
-        <v>9.2110532639167013E-3</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="2"/>
-        <v>3.0036043251902285E-3</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="3"/>
-        <v>2.9835802963556268E-2</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="4"/>
-        <v>1.4917901481778134E-2</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="5"/>
-        <v>0.14357228674409292</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="6"/>
-        <v>8.1097316780136177E-3</v>
-      </c>
-      <c r="Z32">
-        <f t="shared" si="7"/>
-        <v>7.4088906688025633E-3</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" si="8"/>
-        <v>0.12324789747697237</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="9"/>
-        <v>2.0324389267120543E-2</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="10"/>
-        <v>4.1049259110933116E-3</v>
-      </c>
-      <c r="AD32">
-        <f t="shared" si="11"/>
-        <v>2.5030036043251903E-3</v>
-      </c>
-      <c r="AE32">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33">
-        <v>34.340000000000003</v>
-      </c>
-      <c r="D33">
-        <v>1.41</v>
-      </c>
-      <c r="E33">
-        <v>4.49</v>
-      </c>
-      <c r="F33">
-        <v>0.98</v>
-      </c>
-      <c r="G33">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="H33">
-        <v>2.12</v>
-      </c>
-      <c r="J33">
-        <v>39.22</v>
-      </c>
-      <c r="K33">
-        <v>10.29</v>
-      </c>
-      <c r="M33">
-        <v>0.35</v>
-      </c>
-      <c r="N33">
-        <v>0.4</v>
-      </c>
-      <c r="P33">
-        <v>97.95</v>
-      </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="0"/>
-        <v>0.35058703420112303</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="2"/>
-        <v>1.4395099540581928E-2</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="3"/>
-        <v>4.5839714139867281E-2</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="4"/>
-        <v>1.0005104645227155E-2</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="5"/>
-        <v>4.4410413476263393E-2</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="6"/>
-        <v>2.1643695763144462E-2</v>
-      </c>
-      <c r="Z33">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <f t="shared" si="8"/>
-        <v>0.4004083716181725</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="9"/>
-        <v>0.10505359877488514</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <f t="shared" si="11"/>
-        <v>3.5732516590096983E-3</v>
-      </c>
-      <c r="AE33">
-        <f t="shared" si="12"/>
-        <v>4.0837161817253703E-3</v>
-      </c>
-      <c r="AF33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34">
-        <v>36.93</v>
-      </c>
-      <c r="E34">
-        <v>4.24</v>
-      </c>
-      <c r="F34">
-        <v>0.51</v>
-      </c>
-      <c r="G34">
-        <v>3.86</v>
-      </c>
-      <c r="H34">
-        <v>2.74</v>
-      </c>
-      <c r="J34">
-        <v>37.74</v>
-      </c>
-      <c r="K34">
-        <v>10.35</v>
-      </c>
-      <c r="L34">
-        <v>1.41</v>
-      </c>
-      <c r="M34">
-        <v>0.48</v>
-      </c>
-      <c r="N34">
-        <v>0.44</v>
-      </c>
-      <c r="P34">
-        <v>98.7</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="0"/>
-        <v>0.3741641337386018</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="3"/>
-        <v>4.2958459979736574E-2</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="4"/>
-        <v>5.1671732522796353E-3</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="5"/>
-        <v>3.9108409321175278E-2</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="6"/>
-        <v>2.7760891590678825E-2</v>
-      </c>
-      <c r="Z34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <f t="shared" si="8"/>
-        <v>0.38237082066869305</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" si="9"/>
-        <v>0.10486322188449847</v>
-      </c>
-      <c r="AC34">
-        <f t="shared" si="10"/>
-        <v>1.4285714285714285E-2</v>
-      </c>
-      <c r="AD34">
-        <f t="shared" si="11"/>
-        <v>4.8632218844984797E-3</v>
-      </c>
-      <c r="AE34">
-        <f t="shared" si="12"/>
-        <v>4.4579533941236068E-3</v>
-      </c>
-      <c r="AF34">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>31</v>
-      </c>
-      <c r="B35">
-        <v>65.91</v>
-      </c>
-      <c r="E35">
-        <v>1.6</v>
-      </c>
-      <c r="F35">
-        <v>0.89</v>
-      </c>
-      <c r="G35">
-        <v>3.11</v>
-      </c>
-      <c r="H35">
-        <v>4.59</v>
-      </c>
-      <c r="I35">
-        <v>0.44</v>
-      </c>
-      <c r="J35">
-        <v>16.55</v>
-      </c>
-      <c r="K35">
-        <v>3.42</v>
-      </c>
-      <c r="L35">
-        <v>1.62</v>
-      </c>
-      <c r="M35">
-        <v>0.3</v>
-      </c>
-      <c r="P35">
-        <v>98.43</v>
-      </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="0"/>
-        <v>0.66961292288936292</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="3"/>
-        <v>1.62552067459108E-2</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="4"/>
-        <v>9.0419587524128812E-3</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="5"/>
-        <v>3.1596058112364114E-2</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="6"/>
-        <v>4.6632124352331598E-2</v>
-      </c>
-      <c r="Z35">
-        <f t="shared" si="7"/>
-        <v>4.4701818551254697E-3</v>
-      </c>
-      <c r="AA35">
-        <f t="shared" si="8"/>
-        <v>0.16813979477801483</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" si="9"/>
-        <v>3.4745504419384329E-2</v>
-      </c>
-      <c r="AC35">
-        <f t="shared" si="10"/>
-        <v>1.6458396830234683E-2</v>
-      </c>
-      <c r="AD35">
-        <f t="shared" si="11"/>
-        <v>3.0478512648582745E-3</v>
-      </c>
-      <c r="AE35">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>32</v>
-      </c>
-      <c r="B36">
-        <v>69.709999999999994</v>
-      </c>
-      <c r="D36">
-        <v>0.21</v>
-      </c>
-      <c r="E36">
-        <v>0.46</v>
-      </c>
-      <c r="G36">
-        <v>2.36</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0.11</v>
-      </c>
-      <c r="J36">
-        <v>19.760000000000002</v>
-      </c>
-      <c r="K36">
-        <v>4.88</v>
-      </c>
-      <c r="L36">
-        <v>0.17</v>
-      </c>
-      <c r="P36">
-        <v>98.66</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="0"/>
-        <v>0.70656801135211833</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="2"/>
-        <v>2.1285221974457732E-3</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="3"/>
-        <v>4.6624771944050276E-3</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="5"/>
-        <v>2.3920535171295356E-2</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="6"/>
-        <v>1.0135819987837016E-2</v>
-      </c>
-      <c r="Z36">
-        <f t="shared" si="7"/>
-        <v>1.1149401986620718E-3</v>
-      </c>
-      <c r="AA36">
-        <f t="shared" si="8"/>
-        <v>0.20028380295965945</v>
-      </c>
-      <c r="AB36">
-        <f t="shared" si="9"/>
-        <v>4.9462801540644641E-2</v>
-      </c>
-      <c r="AC36">
-        <f t="shared" si="10"/>
-        <v>1.7230893979322929E-3</v>
-      </c>
-      <c r="AD36">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>33</v>
-      </c>
-      <c r="B37">
-        <v>75.510000000000005</v>
-      </c>
-      <c r="D37">
-        <v>0.15</v>
-      </c>
-      <c r="E37">
-        <v>0.64</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>2.35</v>
-      </c>
-      <c r="I37">
-        <v>0.47</v>
-      </c>
-      <c r="J37">
-        <v>16.16</v>
-      </c>
-      <c r="K37">
-        <v>3.55</v>
-      </c>
-      <c r="L37">
-        <v>0.13</v>
-      </c>
-      <c r="P37">
-        <v>99.96</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="0"/>
-        <v>0.75540216086434586</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="2"/>
-        <v>1.5006002400960385E-3</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="3"/>
-        <v>6.4025610244097643E-3</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="4"/>
-        <v>1.0004001600640256E-2</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="5"/>
-        <v>2.3509403761504604E-2</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <f t="shared" si="7"/>
-        <v>4.7018807523009206E-3</v>
-      </c>
-      <c r="AA37">
-        <f t="shared" si="8"/>
-        <v>0.16166466586634656</v>
-      </c>
-      <c r="AB37">
-        <f t="shared" si="9"/>
-        <v>3.5514205682272912E-2</v>
-      </c>
-      <c r="AC37">
-        <f t="shared" si="10"/>
-        <v>1.3005202080832335E-3</v>
-      </c>
-      <c r="AD37">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>34</v>
-      </c>
-      <c r="B38">
-        <v>35.78</v>
-      </c>
-      <c r="D38">
-        <v>0.25</v>
-      </c>
-      <c r="E38">
-        <v>0.78</v>
-      </c>
-      <c r="G38">
-        <v>1.62</v>
-      </c>
-      <c r="H38">
-        <v>0.47</v>
-      </c>
-      <c r="I38">
-        <v>1.51</v>
-      </c>
-      <c r="J38">
-        <v>46.55</v>
-      </c>
-      <c r="K38">
-        <v>10</v>
-      </c>
-      <c r="L38">
-        <v>0.34</v>
-      </c>
-      <c r="M38">
-        <v>0.22</v>
-      </c>
-      <c r="P38">
-        <v>97.52</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="0"/>
-        <v>0.36689909762100087</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="2"/>
-        <v>2.5635767022149304E-3</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="3"/>
-        <v>7.9983593109105838E-3</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="5"/>
-        <v>1.6611977030352752E-2</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="6"/>
-        <v>4.8195242001640689E-3</v>
-      </c>
-      <c r="Z38">
-        <f t="shared" si="7"/>
-        <v>1.5484003281378179E-2</v>
-      </c>
-      <c r="AA38">
-        <f t="shared" si="8"/>
-        <v>0.47733798195242</v>
-      </c>
-      <c r="AB38">
-        <f t="shared" si="9"/>
-        <v>0.10254306808859721</v>
-      </c>
-      <c r="AC38">
-        <f t="shared" si="10"/>
-        <v>3.4864643150123056E-3</v>
-      </c>
-      <c r="AD38">
-        <f t="shared" si="11"/>
-        <v>2.2559474979491389E-3</v>
-      </c>
-      <c r="AE38">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>35</v>
-      </c>
-      <c r="B39">
-        <v>65.91</v>
-      </c>
-      <c r="E39">
-        <v>0.38</v>
-      </c>
-      <c r="G39">
-        <v>1.44</v>
-      </c>
-      <c r="H39">
-        <v>0.17</v>
-      </c>
-      <c r="I39">
-        <v>0.16</v>
-      </c>
-      <c r="J39">
-        <v>22.05</v>
-      </c>
-      <c r="K39">
-        <v>5.68</v>
-      </c>
-      <c r="L39">
-        <v>0.42</v>
-      </c>
-      <c r="P39">
-        <v>96.21</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="0"/>
-        <v>0.68506392266916127</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <f t="shared" si="3"/>
-        <v>3.9496933790666251E-3</v>
-      </c>
-      <c r="W39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <f t="shared" si="5"/>
-        <v>1.4967259120673527E-2</v>
-      </c>
-      <c r="Y39">
-        <f t="shared" si="6"/>
-        <v>1.7669680906350694E-3</v>
-      </c>
-      <c r="Z39">
-        <f t="shared" si="7"/>
-        <v>1.6630287911859475E-3</v>
-      </c>
-      <c r="AA39">
-        <f t="shared" si="8"/>
-        <v>0.22918615528531339</v>
-      </c>
-      <c r="AB39">
-        <f t="shared" si="9"/>
-        <v>5.9037522087101134E-2</v>
-      </c>
-      <c r="AC39">
-        <f t="shared" si="10"/>
-        <v>4.3654505768631119E-3</v>
-      </c>
-      <c r="AD39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>36</v>
-      </c>
-      <c r="B40">
-        <v>39.57</v>
-      </c>
-      <c r="C40">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="D40">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E40">
-        <v>0.37</v>
-      </c>
-      <c r="G40">
-        <v>1.6</v>
-      </c>
-      <c r="H40">
-        <v>0.32</v>
-      </c>
-      <c r="I40">
-        <v>0.68</v>
-      </c>
-      <c r="J40">
-        <v>41.61</v>
-      </c>
-      <c r="K40">
-        <v>10.83</v>
-      </c>
-      <c r="L40">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M40">
-        <v>0.22</v>
-      </c>
-      <c r="P40">
-        <v>97.63</v>
-      </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="0"/>
-        <v>0.40530574618457443</v>
-      </c>
-      <c r="T40">
-        <f t="shared" si="1"/>
-        <v>2.2738912219604633E-2</v>
-      </c>
-      <c r="U40">
-        <f t="shared" si="2"/>
-        <v>1.4339854552903823E-3</v>
-      </c>
-      <c r="V40">
-        <f t="shared" si="3"/>
-        <v>3.7898187032674386E-3</v>
-      </c>
-      <c r="W40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <f t="shared" si="5"/>
-        <v>1.6388405203318655E-2</v>
-      </c>
-      <c r="Y40">
-        <f t="shared" si="6"/>
-        <v>3.2776810406637308E-3</v>
-      </c>
-      <c r="Z40">
-        <f t="shared" si="7"/>
-        <v>6.9650722114104283E-3</v>
-      </c>
-      <c r="AA40">
-        <f t="shared" si="8"/>
-        <v>0.42620096281880571</v>
-      </c>
-      <c r="AB40">
-        <f t="shared" si="9"/>
-        <v>0.11092901771996314</v>
-      </c>
-      <c r="AC40">
-        <f t="shared" si="10"/>
-        <v>7.1699272764519113E-4</v>
-      </c>
-      <c r="AD40">
-        <f t="shared" si="11"/>
-        <v>2.2534057154563148E-3</v>
-      </c>
-      <c r="AE40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>37</v>
-      </c>
-      <c r="B41">
-        <v>60.12</v>
-      </c>
-      <c r="D41">
-        <v>0.23</v>
-      </c>
-      <c r="E41">
-        <v>0.89</v>
-      </c>
-      <c r="G41">
-        <v>2.72</v>
-      </c>
-      <c r="I41">
-        <v>3.01</v>
-      </c>
-      <c r="J41">
-        <v>17.239999999999998</v>
-      </c>
-      <c r="K41">
-        <v>10.34</v>
-      </c>
-      <c r="L41">
-        <v>1.46</v>
-      </c>
-      <c r="M41">
-        <v>0.31</v>
-      </c>
-      <c r="O41">
-        <v>3.66</v>
-      </c>
-      <c r="P41">
-        <v>99.98</v>
-      </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="0"/>
-        <v>0.60132026405281047</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <f t="shared" si="2"/>
-        <v>2.3004600920184036E-3</v>
-      </c>
-      <c r="V41">
-        <f t="shared" si="3"/>
-        <v>8.9017803560712139E-3</v>
-      </c>
-      <c r="W41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <f t="shared" si="5"/>
-        <v>2.7205441088217645E-2</v>
-      </c>
-      <c r="Y41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <f t="shared" si="7"/>
-        <v>3.0106021204240843E-2</v>
-      </c>
-      <c r="AA41">
-        <f t="shared" si="8"/>
-        <v>0.17243448689737945</v>
-      </c>
-      <c r="AB41">
-        <f t="shared" si="9"/>
-        <v>0.10342068413682735</v>
-      </c>
-      <c r="AC41">
-        <f t="shared" si="10"/>
-        <v>1.4602920584116823E-2</v>
-      </c>
-      <c r="AD41">
-        <f t="shared" si="11"/>
-        <v>3.1006201240248049E-3</v>
-      </c>
-      <c r="AE41">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF41">
-        <f t="shared" si="13"/>
-        <v>3.6607321464292859E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>38</v>
-      </c>
-      <c r="B42">
-        <v>32.93</v>
-      </c>
-      <c r="C42">
-        <v>1.38</v>
-      </c>
-      <c r="E42">
-        <v>0.68</v>
-      </c>
-      <c r="G42">
-        <v>2.57</v>
-      </c>
-      <c r="H42">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I42">
-        <v>0.73</v>
-      </c>
-      <c r="J42">
-        <v>49.31</v>
-      </c>
-      <c r="K42">
-        <v>9.7899999999999991</v>
-      </c>
-      <c r="L42">
-        <v>0.48</v>
-      </c>
-      <c r="M42">
-        <v>0.41</v>
-      </c>
-      <c r="P42">
-        <v>98.57</v>
-      </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="0"/>
-        <v>0.3340773054681952</v>
-      </c>
-      <c r="T42">
-        <f t="shared" si="1"/>
-        <v>1.4000202901491326E-2</v>
-      </c>
-      <c r="U42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <f t="shared" si="3"/>
-        <v>6.8986507050826833E-3</v>
-      </c>
-      <c r="W42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <f t="shared" si="5"/>
-        <v>2.6072841635386021E-2</v>
-      </c>
-      <c r="Y42">
-        <f t="shared" si="6"/>
-        <v>2.942071624226438E-3</v>
-      </c>
-      <c r="Z42">
-        <f t="shared" si="7"/>
-        <v>7.4059044333975857E-3</v>
-      </c>
-      <c r="AA42">
-        <f t="shared" si="8"/>
-        <v>0.50025362686415753</v>
-      </c>
-      <c r="AB42">
-        <f t="shared" si="9"/>
-        <v>9.9320280004058029E-2</v>
-      </c>
-      <c r="AC42">
-        <f t="shared" si="10"/>
-        <v>4.8696357918230704E-3</v>
-      </c>
-      <c r="AD42">
-        <f t="shared" si="11"/>
-        <v>4.1594805721822054E-3</v>
-      </c>
-      <c r="AE42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF42">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>39</v>
-      </c>
-      <c r="B43">
-        <v>26.25</v>
-      </c>
-      <c r="E43">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="G43">
-        <v>0.5</v>
-      </c>
-      <c r="I43">
-        <v>0.88</v>
-      </c>
-      <c r="J43">
-        <v>61.03</v>
-      </c>
-      <c r="K43">
-        <v>7.22</v>
-      </c>
-      <c r="L43">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="M43">
-        <v>0.61</v>
-      </c>
-      <c r="P43">
-        <v>98.76</v>
-      </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="0"/>
-        <v>0.2657958687727825</v>
-      </c>
-      <c r="T43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <f t="shared" si="3"/>
-        <v>1.1239368165249088E-2</v>
-      </c>
-      <c r="W43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <f t="shared" si="5"/>
-        <v>5.0627784528149049E-3</v>
-      </c>
-      <c r="Y43">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <f t="shared" si="7"/>
-        <v>8.9104900769542313E-3</v>
-      </c>
-      <c r="AA43">
-        <f t="shared" si="8"/>
-        <v>0.61796273795058732</v>
-      </c>
-      <c r="AB43">
-        <f t="shared" si="9"/>
-        <v>7.3106520858647217E-2</v>
-      </c>
-      <c r="AC43">
-        <f t="shared" si="10"/>
-        <v>1.1745646010530578E-2</v>
-      </c>
-      <c r="AD43">
-        <f t="shared" si="11"/>
-        <v>6.1765897124341834E-3</v>
-      </c>
-      <c r="AE43">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF43">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>40</v>
-      </c>
-      <c r="B44">
-        <v>16.71</v>
-      </c>
-      <c r="E44">
-        <v>1.87</v>
-      </c>
-      <c r="G44">
-        <v>0.45</v>
-      </c>
-      <c r="H44">
-        <v>0.19</v>
-      </c>
-      <c r="J44">
-        <v>70.209999999999994</v>
-      </c>
-      <c r="K44">
-        <v>6.69</v>
-      </c>
-      <c r="L44">
-        <v>1.77</v>
-      </c>
-      <c r="M44">
-        <v>0.68</v>
-      </c>
-      <c r="P44">
-        <v>98.57</v>
-      </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="0"/>
-        <v>0.16952419600284063</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <f t="shared" si="3"/>
-        <v>1.8971289438977378E-2</v>
-      </c>
-      <c r="W44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <f t="shared" si="5"/>
-        <v>4.5652835548341281E-3</v>
-      </c>
-      <c r="Y44">
-        <f t="shared" si="6"/>
-        <v>1.927564167596632E-3</v>
-      </c>
-      <c r="Z44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <f t="shared" si="8"/>
-        <v>0.71228568529978697</v>
-      </c>
-      <c r="AB44">
-        <f t="shared" si="9"/>
-        <v>6.7870548848534051E-2</v>
-      </c>
-      <c r="AC44">
-        <f t="shared" si="10"/>
-        <v>1.7956781982347573E-2</v>
-      </c>
-      <c r="AD44">
-        <f t="shared" si="11"/>
-        <v>6.8986507050826833E-3</v>
-      </c>
-      <c r="AE44">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>41</v>
-      </c>
-      <c r="B45">
-        <v>18.46</v>
-      </c>
-      <c r="D45">
-        <v>0.44</v>
-      </c>
-      <c r="E45">
-        <v>4.96</v>
-      </c>
-      <c r="F45">
-        <v>2.73</v>
-      </c>
-      <c r="G45">
-        <v>3.33</v>
-      </c>
-      <c r="H45">
-        <v>1.79</v>
-      </c>
-      <c r="I45">
-        <v>0.19</v>
-      </c>
-      <c r="J45">
-        <v>44.12</v>
-      </c>
-      <c r="K45">
-        <v>9.76</v>
-      </c>
-      <c r="L45">
-        <v>7.46</v>
-      </c>
-      <c r="M45">
-        <v>0.47</v>
-      </c>
-      <c r="P45">
-        <v>93.71</v>
-      </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-      <c r="S45">
-        <f t="shared" si="0"/>
-        <v>0.19699071603884327</v>
-      </c>
-      <c r="T45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <f t="shared" si="2"/>
-        <v>4.6953366769821791E-3</v>
-      </c>
-      <c r="V45">
-        <f t="shared" si="3"/>
-        <v>5.2929249813253657E-2</v>
-      </c>
-      <c r="W45">
-        <f t="shared" si="4"/>
-        <v>2.9132429836730339E-2</v>
-      </c>
-      <c r="X45">
-        <f t="shared" si="5"/>
-        <v>3.5535161668978771E-2</v>
-      </c>
-      <c r="Y45">
-        <f t="shared" si="6"/>
-        <v>1.9101483299541141E-2</v>
-      </c>
-      <c r="Z45">
-        <f t="shared" si="7"/>
-        <v>2.0275317468786682E-3</v>
-      </c>
-      <c r="AA45">
-        <f t="shared" si="8"/>
-        <v>0.47081421406466761</v>
-      </c>
-      <c r="AB45">
-        <f t="shared" si="9"/>
-        <v>0.10415110447124107</v>
-      </c>
-      <c r="AC45">
-        <f t="shared" si="10"/>
-        <v>7.9607299114288765E-2</v>
-      </c>
-      <c r="AD45">
-        <f t="shared" si="11"/>
-        <v>5.0154732685946E-3</v>
-      </c>
-      <c r="AE45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>187</v>
-      </c>
-      <c r="B46">
-        <v>51.26</v>
-      </c>
-      <c r="C46">
-        <v>5.74</v>
-      </c>
-      <c r="D46">
-        <v>0.15</v>
-      </c>
-      <c r="E46">
-        <v>0.79</v>
-      </c>
-      <c r="F46">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="G46">
-        <v>3.53</v>
-      </c>
-      <c r="I46">
-        <v>2.67</v>
-      </c>
-      <c r="J46">
-        <v>21.88</v>
-      </c>
-      <c r="K46">
-        <v>10.47</v>
-      </c>
-      <c r="L46">
-        <v>0.08</v>
-      </c>
-      <c r="M46">
-        <v>0.35</v>
-      </c>
-      <c r="P46">
-        <v>98.01</v>
-      </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-      <c r="S46">
-        <f t="shared" si="0"/>
-        <v>0.52300785634118963</v>
-      </c>
-      <c r="T46">
-        <f t="shared" si="1"/>
-        <v>5.8565452504846446E-2</v>
-      </c>
-      <c r="U46">
-        <f t="shared" si="2"/>
-        <v>1.5304560759106212E-3</v>
-      </c>
-      <c r="V46">
-        <f t="shared" si="3"/>
-        <v>8.0604019997959388E-3</v>
-      </c>
-      <c r="W46">
-        <f t="shared" si="4"/>
-        <v>1.1121314151617183E-2</v>
-      </c>
-      <c r="X46">
-        <f t="shared" si="5"/>
-        <v>3.6016732986429954E-2</v>
-      </c>
-      <c r="Y46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <f t="shared" si="7"/>
-        <v>2.7242118151209058E-2</v>
-      </c>
-      <c r="AA46">
-        <f t="shared" si="8"/>
-        <v>0.22324252627282928</v>
-      </c>
-      <c r="AB46">
-        <f t="shared" si="9"/>
-        <v>0.10682583409856138</v>
-      </c>
-      <c r="AC46">
-        <f t="shared" si="10"/>
-        <v>8.1624324048566472E-4</v>
-      </c>
-      <c r="AD46">
-        <f t="shared" si="11"/>
-        <v>3.5710641771247828E-3</v>
-      </c>
-      <c r="AE46">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>188</v>
-      </c>
-      <c r="B47">
-        <v>51.33</v>
-      </c>
-      <c r="C47">
-        <v>5.68</v>
-      </c>
-      <c r="D47">
-        <v>0.35</v>
-      </c>
-      <c r="F47">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="G47">
-        <v>5.66</v>
-      </c>
-      <c r="I47">
-        <v>2.72</v>
-      </c>
-      <c r="J47">
-        <v>20.12</v>
-      </c>
-      <c r="K47">
-        <v>10.88</v>
-      </c>
-      <c r="P47">
-        <v>97.9</v>
-      </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-      <c r="S47">
-        <f t="shared" si="0"/>
-        <v>0.5243105209397344</v>
-      </c>
-      <c r="T47">
-        <f t="shared" si="1"/>
-        <v>5.8018386108273742E-2</v>
-      </c>
-      <c r="U47">
-        <f t="shared" si="2"/>
-        <v>3.5750766087844733E-3</v>
-      </c>
-      <c r="V47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <f t="shared" si="4"/>
-        <v>1.1848825331971399E-2</v>
-      </c>
-      <c r="X47">
-        <f t="shared" si="5"/>
-        <v>5.7814096016343207E-2</v>
-      </c>
-      <c r="Y47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <f t="shared" si="7"/>
-        <v>2.7783452502553627E-2</v>
-      </c>
-      <c r="AA47">
-        <f t="shared" si="8"/>
-        <v>0.20551583248212463</v>
-      </c>
-      <c r="AB47">
-        <f t="shared" si="9"/>
-        <v>0.11113381001021451</v>
-      </c>
-      <c r="AC47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF47">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>189</v>
-      </c>
-      <c r="B48">
-        <v>12.41</v>
-      </c>
-      <c r="E48">
-        <v>5.24</v>
-      </c>
-      <c r="F48">
-        <v>0.89</v>
-      </c>
-      <c r="G48">
-        <v>2.25</v>
-      </c>
-      <c r="H48">
-        <v>0.76</v>
-      </c>
-      <c r="I48">
-        <v>5.35</v>
-      </c>
-      <c r="J48">
-        <v>59.85</v>
-      </c>
-      <c r="K48">
-        <v>7.29</v>
-      </c>
-      <c r="M48">
-        <v>0.64</v>
-      </c>
-      <c r="P48">
-        <v>94.68</v>
-      </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-      <c r="S48">
-        <f t="shared" si="0"/>
-        <v>0.1310730882974229</v>
-      </c>
-      <c r="T48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <f t="shared" si="3"/>
-        <v>5.5344317701732149E-2</v>
-      </c>
-      <c r="W48">
-        <f t="shared" si="4"/>
-        <v>9.400084495141528E-3</v>
-      </c>
-      <c r="X48">
-        <f t="shared" si="5"/>
-        <v>2.3764258555133078E-2</v>
-      </c>
-      <c r="Y48">
-        <f t="shared" si="6"/>
-        <v>8.0270384452893959E-3</v>
-      </c>
-      <c r="Z48">
-        <f t="shared" si="7"/>
-        <v>5.650612589776087E-2</v>
-      </c>
-      <c r="AA48">
-        <f t="shared" si="8"/>
-        <v>0.63212927756653992</v>
-      </c>
-      <c r="AB48">
-        <f t="shared" si="9"/>
-        <v>7.6996197718631171E-2</v>
-      </c>
-      <c r="AC48">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <f t="shared" si="11"/>
-        <v>6.7596113223489648E-3</v>
-      </c>
-      <c r="AE48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>190</v>
-      </c>
-      <c r="B49">
-        <v>21.7</v>
-      </c>
-      <c r="E49">
-        <v>6.4</v>
-      </c>
-      <c r="F49">
-        <v>0.95</v>
-      </c>
-      <c r="G49">
-        <v>3.41</v>
-      </c>
-      <c r="H49">
-        <v>1.39</v>
-      </c>
-      <c r="I49">
-        <v>1.51</v>
-      </c>
-      <c r="J49">
-        <v>44.75</v>
-      </c>
-      <c r="K49">
-        <v>3.26</v>
-      </c>
-      <c r="L49">
-        <v>12.83</v>
-      </c>
-      <c r="M49">
-        <v>0.47</v>
-      </c>
-      <c r="P49">
-        <v>96.67</v>
-      </c>
-      <c r="Q49">
-        <v>1</v>
-      </c>
-      <c r="S49">
-        <f t="shared" si="0"/>
-        <v>0.22447501810282403</v>
-      </c>
-      <c r="T49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <f t="shared" si="3"/>
-        <v>6.620461363401263E-2</v>
-      </c>
-      <c r="W49">
-        <f t="shared" si="4"/>
-        <v>9.8272473362987483E-3</v>
-      </c>
-      <c r="X49">
-        <f t="shared" si="5"/>
-        <v>3.5274645701872352E-2</v>
-      </c>
-      <c r="Y49">
-        <f t="shared" si="6"/>
-        <v>1.4378814523637115E-2</v>
-      </c>
-      <c r="Z49">
-        <f t="shared" si="7"/>
-        <v>1.5620151029274852E-2</v>
-      </c>
-      <c r="AA49">
-        <f t="shared" si="8"/>
-        <v>0.46291507189407261</v>
-      </c>
-      <c r="AB49">
-        <f t="shared" si="9"/>
-        <v>3.3722975069825176E-2</v>
-      </c>
-      <c r="AC49">
-        <f t="shared" si="10"/>
-        <v>0.13271956139443467</v>
-      </c>
-      <c r="AD49">
-        <f t="shared" si="11"/>
-        <v>4.8619013137478012E-3</v>
-      </c>
-      <c r="AE49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>191</v>
-      </c>
-      <c r="B50">
-        <v>60.74</v>
-      </c>
-      <c r="C50">
-        <v>3.06</v>
-      </c>
-      <c r="D50">
-        <v>0.2</v>
-      </c>
-      <c r="E50">
-        <v>2.14</v>
-      </c>
-      <c r="G50">
-        <v>12.69</v>
-      </c>
-      <c r="H50">
-        <v>0.77</v>
-      </c>
-      <c r="I50">
-        <v>0.43</v>
-      </c>
-      <c r="J50">
-        <v>13.61</v>
-      </c>
-      <c r="K50">
-        <v>5.22</v>
-      </c>
-      <c r="M50">
-        <v>0.26</v>
-      </c>
-      <c r="P50">
-        <v>99.12</v>
-      </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-      <c r="S50">
-        <f t="shared" si="0"/>
-        <v>0.61279257465698145</v>
-      </c>
-      <c r="T50">
-        <f t="shared" si="1"/>
-        <v>3.0871670702179176E-2</v>
-      </c>
-      <c r="U50">
-        <f t="shared" si="2"/>
-        <v>2.0177562550443904E-3</v>
-      </c>
-      <c r="V50">
-        <f t="shared" si="3"/>
-        <v>2.158999192897498E-2</v>
-      </c>
-      <c r="W50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <f t="shared" si="5"/>
-        <v>0.12802663438256656</v>
-      </c>
-      <c r="Y50">
-        <f t="shared" si="6"/>
-        <v>7.7683615819209035E-3</v>
-      </c>
-      <c r="Z50">
-        <f t="shared" si="7"/>
-        <v>4.3381759483454392E-3</v>
-      </c>
-      <c r="AA50">
-        <f t="shared" si="8"/>
-        <v>0.13730831315577077</v>
-      </c>
-      <c r="AB50">
-        <f t="shared" si="9"/>
-        <v>5.266343825665859E-2</v>
-      </c>
-      <c r="AC50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <f t="shared" si="11"/>
-        <v>2.6230831315577079E-3</v>
-      </c>
-      <c r="AE50">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF50">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>45</v>
-      </c>
-      <c r="B51">
-        <v>61.28</v>
-      </c>
-      <c r="C51">
-        <v>2.66</v>
-      </c>
-      <c r="D51">
-        <v>0.11</v>
-      </c>
-      <c r="E51">
-        <v>0.84</v>
-      </c>
-      <c r="F51">
-        <v>0.74</v>
-      </c>
-      <c r="G51">
-        <v>5</v>
-      </c>
-      <c r="I51">
-        <v>0.53</v>
-      </c>
-      <c r="J51">
-        <v>15.99</v>
-      </c>
-      <c r="K51">
-        <v>10.96</v>
-      </c>
-      <c r="M51">
-        <v>0.23</v>
-      </c>
-      <c r="P51">
-        <v>98.34</v>
-      </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-      <c r="S51">
-        <f t="shared" si="0"/>
-        <v>0.62314419361399231</v>
-      </c>
-      <c r="T51">
-        <f t="shared" si="1"/>
-        <v>2.7049013626194836E-2</v>
-      </c>
-      <c r="U51">
-        <f t="shared" si="2"/>
-        <v>1.1185682326621924E-3</v>
-      </c>
-      <c r="V51">
-        <f t="shared" si="3"/>
-        <v>8.5417937766931046E-3</v>
-      </c>
-      <c r="W51">
-        <f t="shared" si="4"/>
-        <v>7.5249135651820212E-3</v>
-      </c>
-      <c r="X51">
-        <f t="shared" si="5"/>
-        <v>5.0844010575554197E-2</v>
-      </c>
-      <c r="Y51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <f t="shared" si="7"/>
-        <v>5.3894651210087451E-3</v>
-      </c>
-      <c r="AA51">
-        <f t="shared" si="8"/>
-        <v>0.16259914582062232</v>
-      </c>
-      <c r="AB51">
-        <f t="shared" si="9"/>
-        <v>0.1114500711816148</v>
-      </c>
-      <c r="AC51">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <f t="shared" si="11"/>
-        <v>2.3388244864754933E-3</v>
-      </c>
-      <c r="AE51">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>46</v>
-      </c>
-      <c r="B52">
-        <v>55.21</v>
-      </c>
-      <c r="D52">
-        <v>0.25</v>
-      </c>
-      <c r="F52">
-        <v>1.67</v>
-      </c>
-      <c r="G52">
-        <v>4.79</v>
-      </c>
-      <c r="I52">
-        <v>0.77</v>
-      </c>
-      <c r="J52">
-        <v>25.25</v>
-      </c>
-      <c r="K52">
-        <v>10.06</v>
-      </c>
-      <c r="L52">
-        <v>0.2</v>
-      </c>
-      <c r="M52">
-        <v>0.43</v>
-      </c>
-      <c r="P52">
-        <v>98.63</v>
-      </c>
-      <c r="Q52">
-        <v>1</v>
-      </c>
-      <c r="S52">
-        <f t="shared" si="0"/>
-        <v>0.5597688330122681</v>
-      </c>
-      <c r="T52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <f t="shared" si="2"/>
-        <v>2.5347257426746425E-3</v>
-      </c>
-      <c r="V52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <f t="shared" si="4"/>
-        <v>1.6931967961066614E-2</v>
-      </c>
-      <c r="X52">
-        <f t="shared" si="5"/>
-        <v>4.8565345229646152E-2</v>
-      </c>
-      <c r="Y52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <f t="shared" si="7"/>
-        <v>7.8069552874378998E-3</v>
-      </c>
-      <c r="AA52">
-        <f t="shared" si="8"/>
-        <v>0.25600730001013894</v>
-      </c>
-      <c r="AB52">
-        <f t="shared" si="9"/>
-        <v>0.10199736388522763</v>
-      </c>
-      <c r="AC52">
-        <f t="shared" si="10"/>
-        <v>2.0277805941397143E-3</v>
-      </c>
-      <c r="AD52">
-        <f t="shared" si="11"/>
-        <v>4.359728277400385E-3</v>
-      </c>
-      <c r="AE52">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>47</v>
-      </c>
-      <c r="B53">
-        <v>51.54</v>
-      </c>
-      <c r="C53">
-        <v>4.66</v>
-      </c>
-      <c r="D53">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E53">
-        <v>0.87</v>
-      </c>
-      <c r="F53">
-        <v>0.61</v>
-      </c>
-      <c r="G53">
-        <v>3.06</v>
-      </c>
-      <c r="I53">
-        <v>0.65</v>
-      </c>
-      <c r="J53">
-        <v>25.4</v>
-      </c>
-      <c r="K53">
-        <v>9.23</v>
-      </c>
-      <c r="L53">
-        <v>0.1</v>
-      </c>
-      <c r="M53">
-        <v>0.85</v>
-      </c>
-      <c r="P53">
-        <v>97.26</v>
-      </c>
-      <c r="Q53">
-        <v>1</v>
-      </c>
-      <c r="S53">
-        <f t="shared" si="0"/>
-        <v>0.52991980259099314</v>
-      </c>
-      <c r="T53">
-        <f t="shared" si="1"/>
-        <v>4.7912811022002878E-2</v>
-      </c>
-      <c r="U53">
-        <f t="shared" si="2"/>
-        <v>2.9816985399958871E-3</v>
-      </c>
-      <c r="V53">
-        <f t="shared" si="3"/>
-        <v>8.945095619987662E-3</v>
-      </c>
-      <c r="W53">
-        <f t="shared" si="4"/>
-        <v>6.271848653094797E-3</v>
-      </c>
-      <c r="X53">
-        <f t="shared" si="5"/>
-        <v>3.1462060456508324E-2</v>
-      </c>
-      <c r="Y53">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <f t="shared" si="7"/>
-        <v>6.6831174172321609E-3</v>
-      </c>
-      <c r="AA53">
-        <f t="shared" si="8"/>
-        <v>0.26115566522722594</v>
-      </c>
-      <c r="AB53">
-        <f t="shared" si="9"/>
-        <v>9.4900267324696683E-2</v>
-      </c>
-      <c r="AC53">
-        <f t="shared" si="10"/>
-        <v>1.0281719103434094E-3</v>
-      </c>
-      <c r="AD53">
-        <f t="shared" si="11"/>
-        <v>8.7394612379189801E-3</v>
-      </c>
-      <c r="AE53">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF53">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>48</v>
-      </c>
-      <c r="B54">
-        <v>53.33</v>
-      </c>
-      <c r="C54">
-        <v>0.8</v>
-      </c>
-      <c r="D54">
-        <v>0.32</v>
-      </c>
-      <c r="E54">
-        <v>2.82</v>
-      </c>
-      <c r="F54">
-        <v>1.54</v>
-      </c>
-      <c r="G54">
-        <v>13.65</v>
-      </c>
-      <c r="H54">
-        <v>1.03</v>
-      </c>
-      <c r="J54">
-        <v>15.71</v>
-      </c>
-      <c r="K54">
-        <v>7.31</v>
-      </c>
-      <c r="L54">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M54">
-        <v>0.25</v>
-      </c>
-      <c r="N54">
-        <v>1.31</v>
-      </c>
-      <c r="P54">
-        <v>99.17</v>
-      </c>
-      <c r="Q54">
-        <v>1</v>
-      </c>
-      <c r="S54">
-        <f t="shared" si="0"/>
-        <v>0.53776343652314207</v>
-      </c>
-      <c r="T54">
-        <f t="shared" si="1"/>
-        <v>8.0669557325804171E-3</v>
-      </c>
-      <c r="U54">
-        <f t="shared" si="2"/>
-        <v>3.2267822930321672E-3</v>
-      </c>
-      <c r="V54">
-        <f t="shared" si="3"/>
-        <v>2.843601895734597E-2</v>
-      </c>
-      <c r="W54">
-        <f t="shared" si="4"/>
-        <v>1.5528889785217303E-2</v>
-      </c>
-      <c r="X54">
-        <f t="shared" si="5"/>
-        <v>0.13764243218715339</v>
-      </c>
-      <c r="Y54">
-        <f t="shared" si="6"/>
-        <v>1.0386205505697287E-2</v>
-      </c>
-      <c r="Z54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <f t="shared" si="8"/>
-        <v>0.15841484319854796</v>
-      </c>
-      <c r="AB54">
-        <f t="shared" si="9"/>
-        <v>7.3711808006453564E-2</v>
-      </c>
-      <c r="AC54">
-        <f t="shared" si="10"/>
-        <v>1.1092064132298074E-2</v>
-      </c>
-      <c r="AD54">
-        <f t="shared" si="11"/>
-        <v>2.5209236664313806E-3</v>
-      </c>
-      <c r="AE54">
-        <f t="shared" si="12"/>
-        <v>1.3209640012100433E-2</v>
-      </c>
-      <c r="AF54">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>49</v>
-      </c>
-      <c r="B55">
-        <v>28.79</v>
-      </c>
-      <c r="E55">
-        <v>4.58</v>
-      </c>
-      <c r="F55">
-        <v>1.47</v>
-      </c>
-      <c r="G55">
-        <v>5.38</v>
-      </c>
-      <c r="H55">
-        <v>2.74</v>
-      </c>
-      <c r="I55">
-        <v>0.7</v>
-      </c>
-      <c r="J55">
-        <v>34.18</v>
-      </c>
-      <c r="K55">
-        <v>6.1</v>
-      </c>
-      <c r="L55">
-        <v>11.1</v>
-      </c>
-      <c r="M55">
-        <v>0.46</v>
-      </c>
-      <c r="P55">
-        <v>95.5</v>
-      </c>
-      <c r="Q55">
-        <v>1</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="0"/>
-        <v>0.30146596858638741</v>
-      </c>
-      <c r="T55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <f t="shared" si="3"/>
-        <v>4.7958115183246074E-2</v>
-      </c>
-      <c r="W55">
-        <f t="shared" si="4"/>
-        <v>1.5392670157068062E-2</v>
-      </c>
-      <c r="X55">
-        <f t="shared" si="5"/>
-        <v>5.6335078534031413E-2</v>
-      </c>
-      <c r="Y55">
-        <f t="shared" si="6"/>
-        <v>2.8691099476439792E-2</v>
-      </c>
-      <c r="Z55">
-        <f t="shared" si="7"/>
-        <v>7.329842931937172E-3</v>
-      </c>
-      <c r="AA55">
-        <f t="shared" si="8"/>
-        <v>0.35790575916230366</v>
-      </c>
-      <c r="AB55">
-        <f t="shared" si="9"/>
-        <v>6.3874345549738212E-2</v>
-      </c>
-      <c r="AC55">
-        <f t="shared" si="10"/>
-        <v>0.11623036649214659</v>
-      </c>
-      <c r="AD55">
-        <f t="shared" si="11"/>
-        <v>4.8167539267015705E-3</v>
-      </c>
-      <c r="AE55">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>192</v>
-      </c>
-      <c r="B56">
-        <v>54.61</v>
-      </c>
-      <c r="D56">
-        <v>0.3</v>
-      </c>
-      <c r="E56">
-        <v>2.08</v>
-      </c>
-      <c r="F56">
-        <v>1.2</v>
-      </c>
-      <c r="G56">
-        <v>6.5</v>
-      </c>
-      <c r="H56">
-        <v>1.27</v>
-      </c>
-      <c r="I56">
-        <v>0.45</v>
-      </c>
-      <c r="J56">
-        <v>23.02</v>
-      </c>
-      <c r="K56">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="L56">
-        <v>4.32</v>
-      </c>
-      <c r="M56">
-        <v>0.3</v>
-      </c>
-      <c r="P56">
-        <v>98.24</v>
-      </c>
-      <c r="Q56">
-        <v>1</v>
-      </c>
-      <c r="S56">
-        <f t="shared" si="0"/>
-        <v>0.55588355048859939</v>
-      </c>
-      <c r="T56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <f t="shared" si="2"/>
-        <v>3.0537459283387623E-3</v>
-      </c>
-      <c r="V56">
-        <f t="shared" si="3"/>
-        <v>2.1172638436482087E-2</v>
-      </c>
-      <c r="W56">
-        <f t="shared" si="4"/>
-        <v>1.2214983713355049E-2</v>
-      </c>
-      <c r="X56">
-        <f t="shared" si="5"/>
-        <v>6.6164495114006516E-2</v>
-      </c>
-      <c r="Y56">
-        <f t="shared" si="6"/>
-        <v>1.2927524429967427E-2</v>
-      </c>
-      <c r="Z56">
-        <f t="shared" si="7"/>
-        <v>4.5806188925081436E-3</v>
-      </c>
-      <c r="AA56">
-        <f t="shared" si="8"/>
-        <v>0.23432410423452771</v>
-      </c>
-      <c r="AB56">
-        <f t="shared" si="9"/>
-        <v>4.2650651465798051E-2</v>
-      </c>
-      <c r="AC56">
-        <f t="shared" si="10"/>
-        <v>4.3973941368078182E-2</v>
-      </c>
-      <c r="AD56">
-        <f t="shared" si="11"/>
-        <v>3.0537459283387623E-3</v>
-      </c>
-      <c r="AE56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF56">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>50</v>
-      </c>
-      <c r="B57">
-        <v>17.98</v>
-      </c>
-      <c r="E57">
-        <v>3.19</v>
-      </c>
-      <c r="F57">
-        <v>0.47</v>
-      </c>
-      <c r="G57">
-        <v>1.87</v>
-      </c>
-      <c r="H57">
-        <v>0.33</v>
-      </c>
-      <c r="I57">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="J57">
-        <v>44</v>
-      </c>
-      <c r="K57">
-        <v>14.2</v>
-      </c>
-      <c r="L57">
-        <v>6.34</v>
-      </c>
-      <c r="M57">
-        <v>0.66</v>
-      </c>
-      <c r="P57">
-        <v>90.17</v>
-      </c>
-      <c r="Q57">
-        <v>1</v>
-      </c>
-      <c r="S57">
-        <f t="shared" si="0"/>
-        <v>0.19940113119662858</v>
-      </c>
-      <c r="T57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <f t="shared" si="3"/>
-        <v>3.5377620051014746E-2</v>
-      </c>
-      <c r="W57">
-        <f t="shared" si="4"/>
-        <v>5.2123766219363422E-3</v>
-      </c>
-      <c r="X57">
-        <f t="shared" si="5"/>
-        <v>2.0738604857491405E-2</v>
-      </c>
-      <c r="Y57">
-        <f t="shared" si="6"/>
-        <v>3.6597537983808362E-3</v>
-      </c>
-      <c r="Z57">
-        <f t="shared" si="7"/>
-        <v>1.2531884218698013E-2</v>
-      </c>
-      <c r="AA57">
-        <f t="shared" si="8"/>
-        <v>0.48796717311744481</v>
-      </c>
-      <c r="AB57">
-        <f t="shared" si="9"/>
-        <v>0.15748031496062992</v>
-      </c>
-      <c r="AC57">
-        <f t="shared" si="10"/>
-        <v>7.0311633581013638E-2</v>
-      </c>
-      <c r="AD57">
-        <f t="shared" si="11"/>
-        <v>7.3195075967616725E-3</v>
-      </c>
-      <c r="AE57">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF57">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>193</v>
-      </c>
-      <c r="B58">
-        <v>45.02</v>
-      </c>
-      <c r="E58">
-        <v>3.12</v>
-      </c>
-      <c r="F58">
-        <v>0.54</v>
-      </c>
-      <c r="G58">
-        <v>4.16</v>
-      </c>
-      <c r="I58">
-        <v>0.7</v>
-      </c>
-      <c r="J58">
-        <v>30.61</v>
-      </c>
-      <c r="K58">
-        <v>6.22</v>
-      </c>
-      <c r="L58">
-        <v>6.34</v>
-      </c>
-      <c r="M58">
-        <v>0.23</v>
-      </c>
-      <c r="P58">
-        <v>96.94</v>
-      </c>
-      <c r="Q58">
-        <v>1</v>
-      </c>
-      <c r="S58">
-        <f t="shared" si="0"/>
-        <v>0.4644109758613576</v>
-      </c>
-      <c r="T58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <f t="shared" si="3"/>
-        <v>3.2184856612337533E-2</v>
-      </c>
-      <c r="W58">
-        <f t="shared" si="4"/>
-        <v>5.5704559521353421E-3</v>
-      </c>
-      <c r="X58">
-        <f t="shared" si="5"/>
-        <v>4.2913142149783375E-2</v>
-      </c>
-      <c r="Y58">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z58">
-        <f t="shared" si="7"/>
-        <v>7.2209614194347019E-3</v>
-      </c>
-      <c r="AA58">
-        <f t="shared" si="8"/>
-        <v>0.31576232721270892</v>
-      </c>
-      <c r="AB58">
-        <f t="shared" si="9"/>
-        <v>6.4163400041262642E-2</v>
-      </c>
-      <c r="AC58">
-        <f t="shared" si="10"/>
-        <v>6.5401279141737156E-2</v>
-      </c>
-      <c r="AD58">
-        <f t="shared" si="11"/>
-        <v>2.3726016092428309E-3</v>
-      </c>
-      <c r="AE58">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF58">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>194</v>
-      </c>
-      <c r="B59">
-        <v>24.61</v>
-      </c>
-      <c r="E59">
-        <v>3.58</v>
-      </c>
-      <c r="F59">
-        <v>1.19</v>
-      </c>
-      <c r="G59">
-        <v>5.25</v>
-      </c>
-      <c r="H59">
-        <v>1.19</v>
-      </c>
-      <c r="I59">
-        <v>1.37</v>
-      </c>
-      <c r="J59">
-        <v>40.24</v>
-      </c>
-      <c r="K59">
-        <v>8.94</v>
-      </c>
-      <c r="L59">
-        <v>8.1</v>
-      </c>
-      <c r="M59">
-        <v>0.39</v>
-      </c>
-      <c r="N59">
-        <v>0.47</v>
-      </c>
-      <c r="P59">
-        <v>95.33</v>
-      </c>
-      <c r="Q59">
-        <v>1</v>
-      </c>
-      <c r="S59">
-        <f t="shared" si="0"/>
-        <v>0.25815587957620895</v>
-      </c>
-      <c r="T59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <f t="shared" si="3"/>
-        <v>3.7553760621000735E-2</v>
-      </c>
-      <c r="W59">
-        <f t="shared" si="4"/>
-        <v>1.2482953949438791E-2</v>
-      </c>
-      <c r="X59">
-        <f t="shared" si="5"/>
-        <v>5.5071855659288786E-2</v>
-      </c>
-      <c r="Y59">
-        <f t="shared" si="6"/>
-        <v>1.2482953949438791E-2</v>
-      </c>
-      <c r="Z59">
-        <f t="shared" si="7"/>
-        <v>1.4371131857757265E-2</v>
-      </c>
-      <c r="AA59">
-        <f t="shared" si="8"/>
-        <v>0.42211266128186303</v>
-      </c>
-      <c r="AB59">
-        <f t="shared" si="9"/>
-        <v>9.3779502779817475E-2</v>
-      </c>
-      <c r="AC59">
-        <f t="shared" si="10"/>
-        <v>8.4968005874331273E-2</v>
-      </c>
-      <c r="AD59">
-        <f t="shared" si="11"/>
-        <v>4.0910521346900243E-3</v>
-      </c>
-      <c r="AE59">
-        <f t="shared" si="12"/>
-        <v>4.9302423161649003E-3</v>
-      </c>
-      <c r="AF59">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>195</v>
-      </c>
-      <c r="B60">
-        <v>21.35</v>
-      </c>
-      <c r="E60">
-        <v>5.13</v>
-      </c>
-      <c r="F60">
-        <v>1.45</v>
-      </c>
-      <c r="G60">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="H60">
-        <v>0.42</v>
-      </c>
-      <c r="I60">
-        <v>0.75</v>
-      </c>
-      <c r="J60">
-        <v>51.34</v>
-      </c>
-      <c r="L60">
-        <v>8.75</v>
-      </c>
-      <c r="P60">
-        <v>91.7</v>
-      </c>
-      <c r="Q60">
-        <v>1</v>
-      </c>
-      <c r="S60">
-        <f t="shared" si="0"/>
-        <v>0.23282442748091603</v>
-      </c>
-      <c r="T60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <f t="shared" si="3"/>
-        <v>5.5943293347873499E-2</v>
-      </c>
-      <c r="W60">
-        <f t="shared" si="4"/>
-        <v>1.5812431842966192E-2</v>
-      </c>
-      <c r="X60">
-        <f t="shared" si="5"/>
-        <v>2.7371864776444925E-2</v>
-      </c>
-      <c r="Y60">
-        <f t="shared" si="6"/>
-        <v>4.5801526717557245E-3</v>
-      </c>
-      <c r="Z60">
-        <f t="shared" si="7"/>
-        <v>8.1788440567066526E-3</v>
-      </c>
-      <c r="AA60">
-        <f t="shared" si="8"/>
-        <v>0.55986913849509268</v>
-      </c>
-      <c r="AB60">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <f t="shared" si="10"/>
-        <v>9.5419847328244267E-2</v>
-      </c>
-      <c r="AD60">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE60">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF60">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>52</v>
-      </c>
-      <c r="B61">
-        <v>25.74</v>
-      </c>
-      <c r="C61">
-        <v>1.22</v>
-      </c>
-      <c r="E61">
-        <v>2.27</v>
-      </c>
-      <c r="F61">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G61">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="H61">
-        <v>0.23</v>
-      </c>
-      <c r="I61">
-        <v>0.7</v>
-      </c>
-      <c r="J61">
-        <v>47.42</v>
-      </c>
-      <c r="K61">
-        <v>8.64</v>
-      </c>
-      <c r="L61">
-        <v>5.71</v>
-      </c>
-      <c r="M61">
-        <v>0.44</v>
-      </c>
-      <c r="P61">
-        <v>94.08</v>
-      </c>
-      <c r="Q61">
-        <v>1</v>
-      </c>
-      <c r="S61">
-        <f t="shared" si="0"/>
-        <v>0.27359693877551017</v>
-      </c>
-      <c r="T61">
-        <f t="shared" si="1"/>
-        <v>1.2967687074829932E-2</v>
-      </c>
-      <c r="U61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <f t="shared" si="3"/>
-        <v>2.4128401360544217E-2</v>
-      </c>
-      <c r="W61">
-        <f t="shared" si="4"/>
-        <v>5.8460884353741501E-3</v>
-      </c>
-      <c r="X61">
-        <f t="shared" si="5"/>
-        <v>1.2329931972789115E-2</v>
-      </c>
-      <c r="Y61">
-        <f t="shared" si="6"/>
-        <v>2.4447278911564627E-3</v>
-      </c>
-      <c r="Z61">
-        <f t="shared" si="7"/>
-        <v>7.4404761904761901E-3</v>
-      </c>
-      <c r="AA61">
-        <f t="shared" si="8"/>
-        <v>0.50403911564625858</v>
-      </c>
-      <c r="AB61">
-        <f t="shared" si="9"/>
-        <v>9.1836734693877556E-2</v>
-      </c>
-      <c r="AC61">
-        <f t="shared" si="10"/>
-        <v>6.0693027210884355E-2</v>
-      </c>
-      <c r="AD61">
-        <f t="shared" si="11"/>
-        <v>4.6768707482993197E-3</v>
-      </c>
-      <c r="AE61">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF61">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>196</v>
-      </c>
-      <c r="B62">
-        <v>63.66</v>
-      </c>
-      <c r="C62">
-        <v>3.04</v>
-      </c>
-      <c r="D62">
-        <v>0.11</v>
-      </c>
-      <c r="E62">
-        <v>0.78</v>
-      </c>
-      <c r="F62">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="G62">
-        <v>6.06</v>
-      </c>
-      <c r="I62">
-        <v>0.54</v>
-      </c>
-      <c r="J62">
-        <v>13.66</v>
-      </c>
-      <c r="K62">
-        <v>8.99</v>
-      </c>
-      <c r="M62">
-        <v>0.27</v>
-      </c>
-      <c r="P62">
-        <v>98.25</v>
-      </c>
-      <c r="Q62">
-        <v>1</v>
-      </c>
-      <c r="S62">
-        <f t="shared" si="0"/>
-        <v>0.64793893129770985</v>
-      </c>
-      <c r="T62">
-        <f t="shared" si="1"/>
-        <v>3.0941475826972011E-2</v>
-      </c>
-      <c r="U62">
-        <f t="shared" si="2"/>
-        <v>1.1195928753180661E-3</v>
-      </c>
-      <c r="V62">
-        <f t="shared" si="3"/>
-        <v>7.9389312977099242E-3</v>
-      </c>
-      <c r="W62">
-        <f t="shared" si="4"/>
-        <v>1.1603053435114502E-2</v>
-      </c>
-      <c r="X62">
-        <f t="shared" si="5"/>
-        <v>6.1679389312977097E-2</v>
-      </c>
-      <c r="Y62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z62">
-        <f t="shared" si="7"/>
-        <v>5.4961832061068703E-3</v>
-      </c>
-      <c r="AA62">
-        <f t="shared" si="8"/>
-        <v>0.13903307888040711</v>
-      </c>
-      <c r="AB62">
-        <f t="shared" si="9"/>
-        <v>9.1501272264631048E-2</v>
-      </c>
-      <c r="AC62">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD62">
-        <f t="shared" si="11"/>
-        <v>2.7480916030534351E-3</v>
-      </c>
-      <c r="AE62">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF62">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>54</v>
-      </c>
-      <c r="B63">
-        <v>22.28</v>
-      </c>
-      <c r="D63">
-        <v>0.32</v>
-      </c>
-      <c r="E63">
-        <v>3.19</v>
-      </c>
-      <c r="F63">
-        <v>1.28</v>
-      </c>
-      <c r="G63">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="I63">
-        <v>0.83</v>
-      </c>
-      <c r="J63">
-        <v>55.46</v>
-      </c>
-      <c r="K63">
-        <v>7.04</v>
-      </c>
-      <c r="L63">
-        <v>4.24</v>
-      </c>
-      <c r="M63">
-        <v>0.88</v>
-      </c>
-      <c r="P63">
-        <v>99.67</v>
-      </c>
-      <c r="Q63">
-        <v>1</v>
-      </c>
-      <c r="S63">
-        <f t="shared" si="0"/>
-        <v>0.22353767432527341</v>
-      </c>
-      <c r="T63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <f t="shared" si="2"/>
-        <v>3.2105949633791514E-3</v>
-      </c>
-      <c r="V63">
-        <f t="shared" si="3"/>
-        <v>3.2005618541185915E-2</v>
-      </c>
-      <c r="W63">
-        <f t="shared" si="4"/>
-        <v>1.2842379853516606E-2</v>
-      </c>
-      <c r="X63">
-        <f t="shared" si="5"/>
-        <v>4.1637403431323369E-2</v>
-      </c>
-      <c r="Y63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <f t="shared" si="7"/>
-        <v>8.3274806862646735E-3</v>
-      </c>
-      <c r="AA63">
-        <f t="shared" si="8"/>
-        <v>0.55643623959064914</v>
-      </c>
-      <c r="AB63">
-        <f t="shared" si="9"/>
-        <v>7.0633089194341331E-2</v>
-      </c>
-      <c r="AC63">
-        <f t="shared" si="10"/>
-        <v>4.2540383264773753E-2</v>
-      </c>
-      <c r="AD63">
-        <f t="shared" si="11"/>
-        <v>8.8291361492926664E-3</v>
-      </c>
-      <c r="AE63">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF63">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>197</v>
-      </c>
-      <c r="B64">
-        <v>17.11</v>
-      </c>
-      <c r="F64">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="G64">
-        <v>3.65</v>
-      </c>
-      <c r="I64">
-        <v>1.34</v>
-      </c>
-      <c r="J64">
-        <v>58.46</v>
-      </c>
-      <c r="L64">
-        <v>14.13</v>
-      </c>
-      <c r="M64">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="P64">
-        <v>96.92</v>
-      </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-      <c r="S64">
-        <f t="shared" si="0"/>
-        <v>0.17653735039207594</v>
-      </c>
-      <c r="T64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <f t="shared" si="4"/>
-        <v>1.1452744531572431E-2</v>
-      </c>
-      <c r="X64">
-        <f t="shared" si="5"/>
-        <v>3.7659925711927361E-2</v>
-      </c>
-      <c r="Y64">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <f t="shared" si="7"/>
-        <v>1.382583574081717E-2</v>
-      </c>
-      <c r="AA64">
-        <f t="shared" si="8"/>
-        <v>0.60317787866281469</v>
-      </c>
-      <c r="AB64">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <f t="shared" si="10"/>
-        <v>0.14579034255055717</v>
-      </c>
-      <c r="AD64">
-        <f t="shared" si="11"/>
-        <v>1.1555922410235247E-2</v>
-      </c>
-      <c r="AE64">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF64">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>55</v>
-      </c>
-      <c r="B65">
-        <v>49.01</v>
-      </c>
-      <c r="C65">
-        <v>2.71</v>
-      </c>
-      <c r="E65">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="G65">
-        <v>1.45</v>
-      </c>
-      <c r="I65">
-        <v>0.86</v>
-      </c>
-      <c r="J65">
-        <v>32.92</v>
-      </c>
-      <c r="K65">
-        <v>7.95</v>
-      </c>
-      <c r="L65">
-        <v>0.35</v>
-      </c>
-      <c r="P65">
-        <v>96.38</v>
-      </c>
-      <c r="Q65">
-        <v>1</v>
-      </c>
-      <c r="S65">
-        <f t="shared" si="0"/>
-        <v>0.50850798920937956</v>
-      </c>
-      <c r="T65">
-        <f t="shared" si="1"/>
-        <v>2.8117866777339698E-2</v>
-      </c>
-      <c r="U65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <f t="shared" si="3"/>
-        <v>1.1724424154388877E-2</v>
-      </c>
-      <c r="W65">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <f t="shared" si="5"/>
-        <v>1.5044615065366258E-2</v>
-      </c>
-      <c r="Y65">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <f t="shared" si="7"/>
-        <v>8.9230130732517125E-3</v>
-      </c>
-      <c r="AA65">
-        <f t="shared" si="8"/>
-        <v>0.34156463996679814</v>
-      </c>
-      <c r="AB65">
-        <f t="shared" si="9"/>
-        <v>8.2485992944594314E-2</v>
-      </c>
-      <c r="AC65">
-        <f t="shared" si="10"/>
-        <v>3.6314588088815106E-3</v>
-      </c>
-      <c r="AD65">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE65">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF65">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>56</v>
-      </c>
-      <c r="B66">
-        <v>29.15</v>
-      </c>
-      <c r="E66">
-        <v>1.21</v>
-      </c>
-      <c r="G66">
-        <v>1.85</v>
-      </c>
-      <c r="I66">
-        <v>0.79</v>
-      </c>
-      <c r="J66">
-        <v>41.25</v>
-      </c>
-      <c r="K66">
-        <v>15.45</v>
-      </c>
-      <c r="L66">
-        <v>2.54</v>
-      </c>
-      <c r="P66">
-        <v>92.24</v>
-      </c>
-      <c r="Q66">
-        <v>1</v>
-      </c>
-      <c r="S66">
-        <f t="shared" si="0"/>
-        <v>0.31602341717259325</v>
-      </c>
-      <c r="T66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <f t="shared" si="3"/>
-        <v>1.3117953165654814E-2</v>
-      </c>
-      <c r="W66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <f t="shared" si="5"/>
-        <v>2.0056374674761495E-2</v>
-      </c>
-      <c r="Y66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <f t="shared" si="7"/>
-        <v>8.5646140503035564E-3</v>
-      </c>
-      <c r="AA66">
-        <f t="shared" si="8"/>
-        <v>0.44720294882914141</v>
-      </c>
-      <c r="AB66">
-        <f t="shared" si="9"/>
-        <v>0.1674978317432784</v>
-      </c>
-      <c r="AC66">
-        <f t="shared" si="10"/>
-        <v>2.753686036426713E-2</v>
-      </c>
-      <c r="AD66">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE66">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF66">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>57</v>
-      </c>
-      <c r="B67">
-        <v>25.42</v>
-      </c>
-      <c r="E67">
-        <v>1.31</v>
-      </c>
-      <c r="G67">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="I67">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="J67">
-        <v>45.1</v>
-      </c>
-      <c r="K67">
-        <v>17.3</v>
-      </c>
-      <c r="P67">
-        <v>92.47</v>
-      </c>
-      <c r="Q67">
-        <v>1</v>
-      </c>
-      <c r="S67">
-        <f t="shared" ref="S67:S68" si="14">(B67/P67)</f>
-        <v>0.27489996755704554</v>
-      </c>
-      <c r="T67">
-        <f t="shared" ref="T67:T68" si="15">(C67/P67)</f>
-        <v>0</v>
-      </c>
-      <c r="U67">
-        <f t="shared" ref="U67:U68" si="16">(D67/P67)</f>
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <f t="shared" ref="V67:V68" si="17">(E67/P67)</f>
-        <v>1.4166756785984645E-2</v>
-      </c>
-      <c r="W67">
-        <f t="shared" ref="W67:W68" si="18">(F67/P67)</f>
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <f t="shared" ref="X67:X68" si="19">(G67/P67)</f>
-        <v>2.3575213582783607E-2</v>
-      </c>
-      <c r="Y67">
-        <f t="shared" ref="Y67:Y68" si="20">(H67/P67)</f>
-        <v>0</v>
-      </c>
-      <c r="Z67">
-        <f t="shared" ref="Z67:Z68" si="21">(I67/P67)</f>
-        <v>1.2544609062398616E-2</v>
-      </c>
-      <c r="AA67">
-        <f t="shared" ref="AA67:AA68" si="22">(J67/P67)</f>
-        <v>0.48772574889153242</v>
-      </c>
-      <c r="AB67">
-        <f t="shared" ref="AB67:AB68" si="23">(K67/P67)</f>
-        <v>0.18708770412025522</v>
-      </c>
-      <c r="AC67">
-        <f t="shared" ref="AC67:AC68" si="24">(L67/P67)</f>
-        <v>0</v>
-      </c>
-      <c r="AD67">
-        <f t="shared" ref="AD67:AD68" si="25">(M67/P67)</f>
-        <v>0</v>
-      </c>
-      <c r="AE67">
-        <f t="shared" ref="AE67:AE68" si="26">(N67/P67)</f>
-        <v>0</v>
-      </c>
-      <c r="AF67">
-        <f t="shared" ref="AF67:AF68" si="27">(O67/P67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>58</v>
-      </c>
-      <c r="B68">
-        <v>30.39</v>
-      </c>
-      <c r="D68">
-        <v>0.34</v>
-      </c>
-      <c r="E68">
-        <v>3.49</v>
-      </c>
-      <c r="F68">
-        <v>0.79</v>
-      </c>
-      <c r="G68">
-        <v>3.52</v>
-      </c>
-      <c r="H68">
-        <v>0.86</v>
-      </c>
-      <c r="I68">
-        <v>3.13</v>
-      </c>
-      <c r="J68">
-        <v>39.35</v>
-      </c>
-      <c r="K68">
-        <v>7.66</v>
-      </c>
-      <c r="L68">
-        <v>8.99</v>
-      </c>
-      <c r="M68">
-        <v>0.24</v>
-      </c>
-      <c r="P68">
-        <v>98.76</v>
-      </c>
-      <c r="Q68">
-        <v>1</v>
-      </c>
-      <c r="S68">
-        <f t="shared" si="14"/>
-        <v>0.30771567436208991</v>
-      </c>
-      <c r="T68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <f t="shared" si="16"/>
-        <v>3.4426893479141355E-3</v>
-      </c>
-      <c r="V68">
-        <f t="shared" si="17"/>
-        <v>3.5338193600648035E-2</v>
-      </c>
-      <c r="W68">
-        <f t="shared" si="18"/>
-        <v>7.9991899554475495E-3</v>
-      </c>
-      <c r="X68">
-        <f t="shared" si="19"/>
-        <v>3.5641960307816925E-2</v>
-      </c>
-      <c r="Y68">
-        <f t="shared" si="20"/>
-        <v>8.7079789388416363E-3</v>
-      </c>
-      <c r="Z68">
-        <f t="shared" si="21"/>
-        <v>3.1692993114621301E-2</v>
-      </c>
-      <c r="AA68">
-        <f t="shared" si="22"/>
-        <v>0.39844066423653302</v>
-      </c>
-      <c r="AB68">
-        <f t="shared" si="23"/>
-        <v>7.7561765897124338E-2</v>
-      </c>
-      <c r="AC68">
-        <f t="shared" si="24"/>
-        <v>9.1028756581611983E-2</v>
-      </c>
-      <c r="AD68">
-        <f t="shared" si="25"/>
-        <v>2.4301336573511541E-3</v>
-      </c>
-      <c r="AE68">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AF68">
-        <f t="shared" si="27"/>
-        <v>0</v>
+      <c r="Q68" s="23" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -13376,7 +9975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B6B60D-DB25-4C18-8F3F-E342E1505FFE}">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>

--- a/附件.xlsx
+++ b/附件.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22690\PycharmProjects\数模2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA876BB-2746-48F9-9552-3E7BDC474D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764BEBF4-4973-43A5-BEF2-02BFF446DCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2890" yWindow="3900" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表单1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="233">
   <si>
     <t>表面风化</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1885,6 +1885,15 @@
     <t>轻度风化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>高钾</t>
+  </si>
+  <si>
+    <t>铅钡</t>
+  </si>
 </sst>
 </file>
 
@@ -1893,7 +1902,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2048,6 +2057,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2086,7 +2103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2157,6 +2174,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2713,7 +2733,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView zoomScale="132" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -6972,10 +6992,13 @@
   <dimension ref="A1:AG68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="8.7265625" style="23"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
@@ -7028,6 +7051,9 @@
       </c>
       <c r="Q1" s="21" t="s">
         <v>0</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>230</v>
       </c>
       <c r="S1" s="21"/>
       <c r="T1" s="21"/>
@@ -7087,6 +7113,9 @@
       <c r="Q2" s="23" t="s">
         <v>213</v>
       </c>
+      <c r="R2" s="23" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -7131,6 +7160,9 @@
       </c>
       <c r="Q3" s="23" t="s">
         <v>215</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -7171,6 +7203,9 @@
       <c r="Q4" s="23" t="s">
         <v>213</v>
       </c>
+      <c r="R4" s="23" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
@@ -7218,6 +7253,9 @@
       <c r="Q5" s="23" t="s">
         <v>213</v>
       </c>
+      <c r="R5" s="23" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
@@ -7261,6 +7299,9 @@
       <c r="Q6" s="23" t="s">
         <v>213</v>
       </c>
+      <c r="R6" s="23" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
@@ -7306,6 +7347,9 @@
       <c r="Q7" s="23" t="s">
         <v>213</v>
       </c>
+      <c r="R7" s="23" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
@@ -7351,6 +7395,9 @@
       <c r="Q8" s="23" t="s">
         <v>213</v>
       </c>
+      <c r="R8" s="23" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
@@ -7397,6 +7444,9 @@
       </c>
       <c r="Q9" s="23" t="s">
         <v>213</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -7435,6 +7485,9 @@
       <c r="Q10" s="23" t="s">
         <v>215</v>
       </c>
+      <c r="R10" s="23" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
@@ -7478,6 +7531,9 @@
       <c r="Q11" s="23" t="s">
         <v>215</v>
       </c>
+      <c r="R11" s="23" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
@@ -7520,6 +7576,9 @@
       </c>
       <c r="Q12" s="23" t="s">
         <v>227</v>
+      </c>
+      <c r="R12" s="23" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -7559,6 +7618,9 @@
       </c>
       <c r="Q13" s="23" t="s">
         <v>215</v>
+      </c>
+      <c r="R13" s="23" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
@@ -7597,6 +7659,9 @@
       <c r="Q14" s="23" t="s">
         <v>215</v>
       </c>
+      <c r="R14" s="23" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
@@ -7641,6 +7706,9 @@
       </c>
       <c r="Q15" s="23" t="s">
         <v>215</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -7681,8 +7749,11 @@
       <c r="Q16" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>36</v>
       </c>
@@ -7722,8 +7793,11 @@
       <c r="Q17" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>37</v>
       </c>
@@ -7767,8 +7841,11 @@
       <c r="Q18" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>39</v>
       </c>
@@ -7814,8 +7891,11 @@
       <c r="Q19" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>41</v>
       </c>
@@ -7853,8 +7933,11 @@
       <c r="Q20" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>42</v>
       </c>
@@ -7898,8 +7981,11 @@
       <c r="Q21" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>43</v>
       </c>
@@ -7939,8 +8025,11 @@
       <c r="Q22" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>222</v>
       </c>
@@ -7982,8 +8071,11 @@
       <c r="Q23" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>223</v>
       </c>
@@ -8023,8 +8115,11 @@
       <c r="Q24" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>180</v>
       </c>
@@ -8066,8 +8161,11 @@
       <c r="Q25" s="23" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>44</v>
       </c>
@@ -8107,8 +8205,11 @@
       <c r="Q26" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>181</v>
       </c>
@@ -8152,8 +8253,11 @@
       <c r="Q27" s="23" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>46</v>
       </c>
@@ -8195,8 +8299,11 @@
       <c r="Q28" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>182</v>
       </c>
@@ -8240,8 +8347,11 @@
       <c r="Q29" s="23" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>224</v>
       </c>
@@ -8279,8 +8389,11 @@
       <c r="Q30" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>183</v>
       </c>
@@ -8328,8 +8441,11 @@
       <c r="Q31" s="23" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>184</v>
       </c>
@@ -8377,8 +8493,11 @@
       <c r="Q32" s="23" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>185</v>
       </c>
@@ -8422,8 +8541,11 @@
       <c r="Q33" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>186</v>
       </c>
@@ -8467,8 +8589,11 @@
       <c r="Q34" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>225</v>
       </c>
@@ -8512,8 +8637,11 @@
       <c r="Q35" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>50</v>
       </c>
@@ -8555,8 +8683,11 @@
       <c r="Q36" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>51</v>
       </c>
@@ -8598,8 +8729,11 @@
       <c r="Q37" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>52</v>
       </c>
@@ -8643,8 +8777,11 @@
       <c r="Q38" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>53</v>
       </c>
@@ -8684,8 +8821,11 @@
       <c r="Q39" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>54</v>
       </c>
@@ -8731,8 +8871,11 @@
       <c r="Q40" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>55</v>
       </c>
@@ -8776,8 +8919,11 @@
       <c r="Q41" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>56</v>
       </c>
@@ -8821,8 +8967,11 @@
       <c r="Q42" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>57</v>
       </c>
@@ -8862,8 +9011,11 @@
       <c r="Q43" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>58</v>
       </c>
@@ -8903,8 +9055,11 @@
       <c r="Q44" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
         <v>59</v>
       </c>
@@ -8950,8 +9105,11 @@
       <c r="Q45" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>187</v>
       </c>
@@ -8997,8 +9155,11 @@
       <c r="Q46" s="23" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>188</v>
       </c>
@@ -9038,8 +9199,11 @@
       <c r="Q47" s="23" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>189</v>
       </c>
@@ -9081,8 +9245,11 @@
       <c r="Q48" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>190</v>
       </c>
@@ -9126,8 +9293,11 @@
       <c r="Q49" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>191</v>
       </c>
@@ -9171,8 +9341,11 @@
       <c r="Q50" s="23" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>62</v>
       </c>
@@ -9216,8 +9389,11 @@
       <c r="Q51" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>63</v>
       </c>
@@ -9259,8 +9435,11 @@
       <c r="Q52" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
         <v>64</v>
       </c>
@@ -9306,8 +9485,11 @@
       <c r="Q53" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>65</v>
       </c>
@@ -9355,8 +9537,11 @@
       <c r="Q54" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
         <v>66</v>
       </c>
@@ -9400,8 +9585,11 @@
       <c r="Q55" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>192</v>
       </c>
@@ -9447,8 +9635,11 @@
       <c r="Q56" s="23" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>67</v>
       </c>
@@ -9492,8 +9683,11 @@
       <c r="Q57" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>193</v>
       </c>
@@ -9535,8 +9729,11 @@
       <c r="Q58" s="23" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>194</v>
       </c>
@@ -9582,8 +9779,11 @@
       <c r="Q59" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>195</v>
       </c>
@@ -9623,8 +9823,11 @@
       <c r="Q60" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>69</v>
       </c>
@@ -9670,8 +9873,11 @@
       <c r="Q61" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
         <v>196</v>
       </c>
@@ -9715,8 +9921,11 @@
       <c r="Q62" s="23" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
         <v>70</v>
       </c>
@@ -9760,8 +9969,11 @@
       <c r="Q63" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
         <v>197</v>
       </c>
@@ -9799,8 +10011,11 @@
       <c r="Q64" s="23" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>71</v>
       </c>
@@ -9840,8 +10055,11 @@
       <c r="Q65" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R65" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
         <v>72</v>
       </c>
@@ -9879,8 +10097,11 @@
       <c r="Q66" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>73</v>
       </c>
@@ -9916,8 +10137,11 @@
       <c r="Q67" s="23" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>74</v>
       </c>
@@ -9962,6 +10186,9 @@
       </c>
       <c r="Q68" s="23" t="s">
         <v>215</v>
+      </c>
+      <c r="R68" s="23" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -9976,7 +10203,7 @@
   <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -13187,7 +13414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:C38"/>
     </sheetView>
   </sheetViews>

--- a/附件.xlsx
+++ b/附件.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22690\PycharmProjects\数模2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764BEBF4-4973-43A5-BEF2-02BFF446DCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A64667-0BAB-4948-8357-9714410C14DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2890" yWindow="3900" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4120" yWindow="4110" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表单1" sheetId="1" r:id="rId1"/>
@@ -6992,7 +6992,7 @@
   <dimension ref="A1:AG68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -13412,10 +13412,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:C38"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -13424,7 +13424,7 @@
     <col min="3" max="16" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>140</v>
       </c>
@@ -13474,7 +13474,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
@@ -13513,12 +13513,8 @@
       <c r="P2" s="10">
         <v>0.51</v>
       </c>
-      <c r="Q2">
-        <f>SUM(C2:P2)</f>
-        <v>99.480000000000018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>23</v>
       </c>
@@ -13549,12 +13545,8 @@
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="17"/>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q9" si="0">SUM(C3:P3)</f>
-        <v>96.279999999999987</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>24</v>
       </c>
@@ -13597,12 +13589,8 @@
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="17"/>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>98.98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>25</v>
       </c>
@@ -13645,12 +13633,8 @@
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>96.000000000000014</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>26</v>
       </c>
@@ -13697,12 +13681,8 @@
         <v>0.49</v>
       </c>
       <c r="P6" s="17"/>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>99.62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>27</v>
       </c>
@@ -13739,12 +13719,8 @@
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>99.09999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>28</v>
       </c>
@@ -13781,12 +13757,8 @@
       <c r="P8" s="17">
         <v>0.11</v>
       </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>99.64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>29</v>
       </c>
@@ -13834,10 +13806,6 @@
       </c>
       <c r="P9" s="15">
         <v>2.2599999999999998</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>99.97999999999999</v>
       </c>
     </row>
   </sheetData>
